--- a/data/nzd0075/nzd0075.xlsx
+++ b/data/nzd0075/nzd0075.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U331"/>
+  <dimension ref="A1:U336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22019,6 +22019,351 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>379.56</v>
+      </c>
+      <c r="C332" t="n">
+        <v>383.6961538461539</v>
+      </c>
+      <c r="D332" t="n">
+        <v>374.68</v>
+      </c>
+      <c r="E332" t="n">
+        <v>375.8036363636364</v>
+      </c>
+      <c r="F332" t="n">
+        <v>393.04</v>
+      </c>
+      <c r="G332" t="n">
+        <v>372.16</v>
+      </c>
+      <c r="H332" t="n">
+        <v>381.4536363636364</v>
+      </c>
+      <c r="I332" t="n">
+        <v>381.5161538461539</v>
+      </c>
+      <c r="J332" t="n">
+        <v>378.1361538461539</v>
+      </c>
+      <c r="K332" t="n">
+        <v>376.46</v>
+      </c>
+      <c r="L332" t="n">
+        <v>381.02</v>
+      </c>
+      <c r="M332" t="n">
+        <v>370.01</v>
+      </c>
+      <c r="N332" t="n">
+        <v>383.72</v>
+      </c>
+      <c r="O332" t="n">
+        <v>377.31</v>
+      </c>
+      <c r="P332" t="n">
+        <v>377.01</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>386.6471428571429</v>
+      </c>
+      <c r="R332" t="n">
+        <v>388.4261538461539</v>
+      </c>
+      <c r="S332" t="n">
+        <v>374.8971428571429</v>
+      </c>
+      <c r="T332" t="n">
+        <v>364.46</v>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>381.2733333333333</v>
+      </c>
+      <c r="C333" t="n">
+        <v>381.4053846153847</v>
+      </c>
+      <c r="D333" t="n">
+        <v>369.9033333333333</v>
+      </c>
+      <c r="E333" t="n">
+        <v>368.93</v>
+      </c>
+      <c r="F333" t="n">
+        <v>387.46</v>
+      </c>
+      <c r="G333" t="n">
+        <v>366.5833333333333</v>
+      </c>
+      <c r="H333" t="n">
+        <v>383.82</v>
+      </c>
+      <c r="I333" t="n">
+        <v>381.1253846153846</v>
+      </c>
+      <c r="J333" t="n">
+        <v>381.2053846153846</v>
+      </c>
+      <c r="K333" t="n">
+        <v>373.4733333333333</v>
+      </c>
+      <c r="L333" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="M333" t="n">
+        <v>367.0866666666666</v>
+      </c>
+      <c r="N333" t="n">
+        <v>378.61</v>
+      </c>
+      <c r="O333" t="n">
+        <v>378.3933333333333</v>
+      </c>
+      <c r="P333" t="n">
+        <v>383.78</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>389.6871428571428</v>
+      </c>
+      <c r="R333" t="n">
+        <v>388.0753846153846</v>
+      </c>
+      <c r="S333" t="n">
+        <v>379.4471428571428</v>
+      </c>
+      <c r="T333" t="n">
+        <v>367.2866666666667</v>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>392.4833333333333</v>
+      </c>
+      <c r="C334" t="n">
+        <v>386.9484615384616</v>
+      </c>
+      <c r="D334" t="n">
+        <v>379.5133333333333</v>
+      </c>
+      <c r="E334" t="n">
+        <v>374.5327272727272</v>
+      </c>
+      <c r="F334" t="n">
+        <v>394.62</v>
+      </c>
+      <c r="G334" t="n">
+        <v>372.2233333333333</v>
+      </c>
+      <c r="H334" t="n">
+        <v>386.6227272727273</v>
+      </c>
+      <c r="I334" t="n">
+        <v>378.9284615384615</v>
+      </c>
+      <c r="J334" t="n">
+        <v>392.3384615384616</v>
+      </c>
+      <c r="K334" t="n">
+        <v>385.3433333333333</v>
+      </c>
+      <c r="L334" t="n">
+        <v>382.66</v>
+      </c>
+      <c r="M334" t="n">
+        <v>373.3066666666667</v>
+      </c>
+      <c r="N334" t="n">
+        <v>383.93</v>
+      </c>
+      <c r="O334" t="n">
+        <v>384.8533333333333</v>
+      </c>
+      <c r="P334" t="n">
+        <v>383.3</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>391.5371428571429</v>
+      </c>
+      <c r="R334" t="n">
+        <v>395.4484615384616</v>
+      </c>
+      <c r="S334" t="n">
+        <v>391.1071428571428</v>
+      </c>
+      <c r="T334" t="n">
+        <v>372.3266666666667</v>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>375.0266666666667</v>
+      </c>
+      <c r="C335" t="n">
+        <v>382.4453846153846</v>
+      </c>
+      <c r="D335" t="n">
+        <v>371.4366666666667</v>
+      </c>
+      <c r="E335" t="n">
+        <v>375.6781818181818</v>
+      </c>
+      <c r="F335" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="G335" t="n">
+        <v>367.4466666666667</v>
+      </c>
+      <c r="H335" t="n">
+        <v>374.4981818181818</v>
+      </c>
+      <c r="I335" t="n">
+        <v>384.1753846153846</v>
+      </c>
+      <c r="J335" t="n">
+        <v>373.8753846153846</v>
+      </c>
+      <c r="K335" t="n">
+        <v>381.8666666666667</v>
+      </c>
+      <c r="L335" t="n">
+        <v>380.975</v>
+      </c>
+      <c r="M335" t="n">
+        <v>376.4733333333334</v>
+      </c>
+      <c r="N335" t="n">
+        <v>381.925</v>
+      </c>
+      <c r="O335" t="n">
+        <v>377.8066666666667</v>
+      </c>
+      <c r="P335" t="n">
+        <v>378.055</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>384.4628571428572</v>
+      </c>
+      <c r="R335" t="n">
+        <v>393.7553846153846</v>
+      </c>
+      <c r="S335" t="n">
+        <v>380.8328571428572</v>
+      </c>
+      <c r="T335" t="n">
+        <v>370.9633333333334</v>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>383.7466666666666</v>
+      </c>
+      <c r="C336" t="n">
+        <v>387.9169230769231</v>
+      </c>
+      <c r="D336" t="n">
+        <v>378.2166666666667</v>
+      </c>
+      <c r="E336" t="n">
+        <v>376.3818181818182</v>
+      </c>
+      <c r="F336" t="n">
+        <v>392.11</v>
+      </c>
+      <c r="G336" t="n">
+        <v>378.3666666666667</v>
+      </c>
+      <c r="H336" t="n">
+        <v>391.0518181818182</v>
+      </c>
+      <c r="I336" t="n">
+        <v>391.3769230769231</v>
+      </c>
+      <c r="J336" t="n">
+        <v>384.7169230769231</v>
+      </c>
+      <c r="K336" t="n">
+        <v>379.1166666666667</v>
+      </c>
+      <c r="L336" t="n">
+        <v>379.75</v>
+      </c>
+      <c r="M336" t="n">
+        <v>377.6233333333333</v>
+      </c>
+      <c r="N336" t="n">
+        <v>379.64</v>
+      </c>
+      <c r="O336" t="n">
+        <v>380.7366666666667</v>
+      </c>
+      <c r="P336" t="n">
+        <v>386.88</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>391.3685714285714</v>
+      </c>
+      <c r="R336" t="n">
+        <v>387.8869230769231</v>
+      </c>
+      <c r="S336" t="n">
+        <v>383.3785714285714</v>
+      </c>
+      <c r="T336" t="n">
+        <v>370.5933333333334</v>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22030,7 +22375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25438,6 +25783,56 @@
       </c>
       <c r="B340" t="n">
         <v>0.68</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -25606,28 +26001,28 @@
         <v>0.0659</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003357423588216502</v>
+        <v>0.02984845065682064</v>
       </c>
       <c r="J2" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L2" t="n">
-        <v>6.931228900830533e-06</v>
+        <v>0.0005588845419862709</v>
       </c>
       <c r="M2" t="n">
-        <v>6.929856380785346</v>
+        <v>6.928116479593831</v>
       </c>
       <c r="N2" t="n">
-        <v>81.67110769939845</v>
+        <v>81.79019177669871</v>
       </c>
       <c r="O2" t="n">
-        <v>9.037206852750382</v>
+        <v>9.043792997227364</v>
       </c>
       <c r="P2" t="n">
-        <v>374.6777268396108</v>
+        <v>374.417172896247</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25683,28 +26078,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.121022668335269</v>
+        <v>0.1232529770593236</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01151307081842323</v>
+        <v>0.01238390093514474</v>
       </c>
       <c r="M3" t="n">
-        <v>6.166510743959486</v>
+        <v>6.097954165402923</v>
       </c>
       <c r="N3" t="n">
-        <v>63.40765300004438</v>
+        <v>62.41395080416005</v>
       </c>
       <c r="O3" t="n">
-        <v>7.962892250937744</v>
+        <v>7.900250046939024</v>
       </c>
       <c r="P3" t="n">
-        <v>380.7954750108081</v>
+        <v>380.7731812149665</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25760,28 +26155,28 @@
         <v>0.0636</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.009700116031824298</v>
+        <v>-0.00346660666740502</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L4" t="n">
-        <v>7.332891195188651e-05</v>
+        <v>9.6833494727111e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>6.27671469449013</v>
+        <v>6.232020456510644</v>
       </c>
       <c r="N4" t="n">
-        <v>65.72179546225202</v>
+        <v>64.91550902976358</v>
       </c>
       <c r="O4" t="n">
-        <v>8.106898017259871</v>
+        <v>8.057016136868759</v>
       </c>
       <c r="P4" t="n">
-        <v>373.162072993693</v>
+        <v>373.1010814755833</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25837,28 +26232,28 @@
         <v>0.0601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0595369575046675</v>
+        <v>0.04665294996411758</v>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002250227622021206</v>
+        <v>0.001432630468288121</v>
       </c>
       <c r="M5" t="n">
-        <v>6.506157451299818</v>
+        <v>6.456259228885085</v>
       </c>
       <c r="N5" t="n">
-        <v>78.00768506978655</v>
+        <v>77.03672143524101</v>
       </c>
       <c r="O5" t="n">
-        <v>8.832195937012864</v>
+        <v>8.77705653594877</v>
       </c>
       <c r="P5" t="n">
-        <v>376.387757014613</v>
+        <v>376.51496755145</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25914,28 +26309,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08508745450898425</v>
+        <v>-0.09095778328673192</v>
       </c>
       <c r="J6" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004102897541384487</v>
+        <v>0.00486027082028484</v>
       </c>
       <c r="M6" t="n">
-        <v>7.410387482368173</v>
+        <v>7.335595416191177</v>
       </c>
       <c r="N6" t="n">
-        <v>86.90534220930614</v>
+        <v>85.69455998550947</v>
       </c>
       <c r="O6" t="n">
-        <v>9.322303481935467</v>
+        <v>9.257135625316801</v>
       </c>
       <c r="P6" t="n">
-        <v>394.3037161015434</v>
+        <v>394.362137720537</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -25991,28 +26386,28 @@
         <v>0.0623</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2334249908512155</v>
+        <v>-0.2274337059011469</v>
       </c>
       <c r="J7" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03507541250969592</v>
+        <v>0.03441563788982016</v>
       </c>
       <c r="M7" t="n">
-        <v>6.423242346090844</v>
+        <v>6.380292461655745</v>
       </c>
       <c r="N7" t="n">
-        <v>74.89158476914233</v>
+        <v>74.00935312305624</v>
       </c>
       <c r="O7" t="n">
-        <v>8.653992417904139</v>
+        <v>8.602868889100673</v>
       </c>
       <c r="P7" t="n">
-        <v>375.5101037503317</v>
+        <v>375.4501824870133</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26068,28 +26463,28 @@
         <v>0.0571</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3598055350482112</v>
+        <v>-0.3439034924445155</v>
       </c>
       <c r="J8" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K8" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07402459486228008</v>
+        <v>0.06977371253219278</v>
       </c>
       <c r="M8" t="n">
-        <v>6.712123487503278</v>
+        <v>6.702199710729552</v>
       </c>
       <c r="N8" t="n">
-        <v>80.03977700869075</v>
+        <v>79.57661121681647</v>
       </c>
       <c r="O8" t="n">
-        <v>8.946495236051419</v>
+        <v>8.920572359261286</v>
       </c>
       <c r="P8" t="n">
-        <v>387.9264661344649</v>
+        <v>387.7671445573165</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26145,28 +26540,28 @@
         <v>0.0701</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.362474486210843</v>
+        <v>-0.3467387179540921</v>
       </c>
       <c r="J9" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K9" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08755313149192534</v>
+        <v>0.08300399816876858</v>
       </c>
       <c r="M9" t="n">
-        <v>6.404287447942045</v>
+        <v>6.364179246481164</v>
       </c>
       <c r="N9" t="n">
-        <v>67.58134442298804</v>
+        <v>67.04083326205132</v>
       </c>
       <c r="O9" t="n">
-        <v>8.220787335954387</v>
+        <v>8.187846680419176</v>
       </c>
       <c r="P9" t="n">
-        <v>388.3020599272525</v>
+        <v>388.1440786316545</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -26222,28 +26617,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3370911959358552</v>
+        <v>-0.3138375603414057</v>
       </c>
       <c r="J10" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K10" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06768857460484046</v>
+        <v>0.0603990195075681</v>
       </c>
       <c r="M10" t="n">
-        <v>6.7374617097578</v>
+        <v>6.74263997223693</v>
       </c>
       <c r="N10" t="n">
-        <v>75.91681635927135</v>
+        <v>75.99048937828447</v>
       </c>
       <c r="O10" t="n">
-        <v>8.713025671904758</v>
+        <v>8.717252398450125</v>
       </c>
       <c r="P10" t="n">
-        <v>384.0063856281871</v>
+        <v>383.7719250983631</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -26299,28 +26694,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.187498154372884</v>
+        <v>-0.1772777409298034</v>
       </c>
       <c r="J11" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K11" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02147921879186765</v>
+        <v>0.01988293322973711</v>
       </c>
       <c r="M11" t="n">
-        <v>6.993208735543474</v>
+        <v>6.943131942654409</v>
       </c>
       <c r="N11" t="n">
-        <v>78.23422292532885</v>
+        <v>77.36982113965121</v>
       </c>
       <c r="O11" t="n">
-        <v>8.845011188536104</v>
+        <v>8.796011660954708</v>
       </c>
       <c r="P11" t="n">
-        <v>381.0851934421253</v>
+        <v>380.9826714484478</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -26376,28 +26771,28 @@
         <v>0.0878</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2286818686909561</v>
+        <v>-0.230297585183459</v>
       </c>
       <c r="J12" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K12" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03958354619456994</v>
+        <v>0.04153827987755876</v>
       </c>
       <c r="M12" t="n">
-        <v>6.262679398241844</v>
+        <v>6.184172627473952</v>
       </c>
       <c r="N12" t="n">
-        <v>61.79803494296856</v>
+        <v>60.85011838426954</v>
       </c>
       <c r="O12" t="n">
-        <v>7.861172618825296</v>
+        <v>7.800648587410507</v>
       </c>
       <c r="P12" t="n">
-        <v>386.4917935384291</v>
+        <v>386.5082256506442</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -26453,28 +26848,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1629213426497413</v>
+        <v>-0.178896629064448</v>
       </c>
       <c r="J13" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01913679396708656</v>
+        <v>0.02362350040439032</v>
       </c>
       <c r="M13" t="n">
-        <v>6.480395761692456</v>
+        <v>6.448783918354352</v>
       </c>
       <c r="N13" t="n">
-        <v>65.47114062678219</v>
+        <v>64.98623334201089</v>
       </c>
       <c r="O13" t="n">
-        <v>8.091423893653218</v>
+        <v>8.061403931202733</v>
       </c>
       <c r="P13" t="n">
-        <v>381.6665071777574</v>
+        <v>381.8300840381655</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -26530,28 +26925,28 @@
         <v>0.0901</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1675117967884331</v>
+        <v>-0.1706091398877562</v>
       </c>
       <c r="J14" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K14" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02069368173417263</v>
+        <v>0.02221484851350619</v>
       </c>
       <c r="M14" t="n">
-        <v>6.27123991245356</v>
+        <v>6.199092186515984</v>
       </c>
       <c r="N14" t="n">
-        <v>63.95502838613857</v>
+        <v>62.98691797912822</v>
       </c>
       <c r="O14" t="n">
-        <v>7.997188780198862</v>
+        <v>7.936429800554417</v>
       </c>
       <c r="P14" t="n">
-        <v>386.7017733864753</v>
+        <v>386.7336776374772</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -26607,28 +27002,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.03249349145978036</v>
+        <v>-0.0467587932664696</v>
       </c>
       <c r="J15" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K15" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0006192961095187188</v>
+        <v>0.001324428413275958</v>
       </c>
       <c r="M15" t="n">
-        <v>7.198008345652898</v>
+        <v>7.147702293961092</v>
       </c>
       <c r="N15" t="n">
-        <v>82.20722708794185</v>
+        <v>81.23930966084535</v>
       </c>
       <c r="O15" t="n">
-        <v>9.066820119972704</v>
+        <v>9.013285175830472</v>
       </c>
       <c r="P15" t="n">
-        <v>384.7334026019452</v>
+        <v>384.8791151190835</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -26684,28 +27079,28 @@
         <v>0.0914</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05276553080366941</v>
+        <v>-0.05572763164459824</v>
       </c>
       <c r="J16" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K16" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001978627267364308</v>
+        <v>0.002281998726398782</v>
       </c>
       <c r="M16" t="n">
-        <v>6.167111058701658</v>
+        <v>6.119291413420147</v>
       </c>
       <c r="N16" t="n">
-        <v>68.4129478361381</v>
+        <v>67.52057931746921</v>
       </c>
       <c r="O16" t="n">
-        <v>8.271211993180811</v>
+        <v>8.217090684510499</v>
       </c>
       <c r="P16" t="n">
-        <v>384.0105967984557</v>
+        <v>384.0406041957327</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -26761,28 +27156,28 @@
         <v>0.0806</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02669659624399597</v>
+        <v>-0.02842018459354302</v>
       </c>
       <c r="J17" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K17" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004844555053791222</v>
+        <v>0.0005687867389432277</v>
       </c>
       <c r="M17" t="n">
-        <v>6.304051609208834</v>
+        <v>6.240647016700652</v>
       </c>
       <c r="N17" t="n">
-        <v>72.36150740569026</v>
+        <v>71.29782582397043</v>
       </c>
       <c r="O17" t="n">
-        <v>8.50655673029283</v>
+        <v>8.443803990143923</v>
       </c>
       <c r="P17" t="n">
-        <v>389.9214497345532</v>
+        <v>389.9388337960243</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -26838,28 +27233,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04325688245491451</v>
+        <v>0.0552602835002604</v>
       </c>
       <c r="J18" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K18" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001441511005917273</v>
+        <v>0.002428025767671316</v>
       </c>
       <c r="M18" t="n">
-        <v>6.201006617162858</v>
+        <v>6.150060995461386</v>
       </c>
       <c r="N18" t="n">
-        <v>63.34979899458818</v>
+        <v>62.65363823057046</v>
       </c>
       <c r="O18" t="n">
-        <v>7.95925869629755</v>
+        <v>7.91540512106427</v>
       </c>
       <c r="P18" t="n">
-        <v>386.2002251838609</v>
+        <v>386.078972367945</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -26915,28 +27310,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04224019060749751</v>
+        <v>0.05024457647352554</v>
       </c>
       <c r="J19" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K19" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001272205991040609</v>
+        <v>0.001853046504873834</v>
       </c>
       <c r="M19" t="n">
-        <v>6.513843519820506</v>
+        <v>6.474843127105024</v>
       </c>
       <c r="N19" t="n">
-        <v>69.69028184412487</v>
+        <v>69.08931758136158</v>
       </c>
       <c r="O19" t="n">
-        <v>8.348070546187596</v>
+        <v>8.311998410813226</v>
       </c>
       <c r="P19" t="n">
-        <v>378.5589393092876</v>
+        <v>378.4785601426117</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -26992,28 +27387,28 @@
         <v>0.0822</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.05107388810958281</v>
+        <v>-0.04657539163027068</v>
       </c>
       <c r="J20" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K20" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002233371370699233</v>
+        <v>0.001924734569217823</v>
       </c>
       <c r="M20" t="n">
-        <v>5.94977318749665</v>
+        <v>5.895946196532706</v>
       </c>
       <c r="N20" t="n">
-        <v>56.9539451719267</v>
+        <v>56.15009583619612</v>
       </c>
       <c r="O20" t="n">
-        <v>7.546783763427086</v>
+        <v>7.493336762497474</v>
       </c>
       <c r="P20" t="n">
-        <v>369.1672962423322</v>
+        <v>369.1213380005534</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -27050,7 +27445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U331"/>
+  <dimension ref="A1:U336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59887,6 +60282,541 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-35.43351704090048,174.43068478763544</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-35.43407168102946,174.4302038549808</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-35.43471165006161,174.42984024983315</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-35.43537772370602,174.42946684091194</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-35.43608624765744,174.42932195183644</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-35.43673276685732,174.42885186126216</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-35.43741289398588,174.42851261649048</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-35.438075732472015,174.42817311698082</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-35.4387388411646,174.42783158759522</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-35.43942392692489,174.42754455707342</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-35.4400942056855,174.4273019172879</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-35.440780256592824,174.42702340551637</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>-35.44149137185888,174.42691439715728</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>-35.44218572213159,174.42670668180574</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>-35.442895328175005,174.42660659246786</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>-35.4435995952757,174.42664085447873</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>-35.44426856922458,174.426771687704</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>-35.44494671242459,174.4269611577156</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>-35.44553284249537,174.4274278484545</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-35.43352641945264,174.43069978242872</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-35.434062150071654,174.4301814704067</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-35.43469600471523,174.4297912304761</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-35.435353477727816,174.42939716380585</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-35.43607034278724,174.42926364026152</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-35.43671402030036,174.42879486330926</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-35.43742194502466,174.4285362203795</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-35.4380744747256,174.42816909618142</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-35.43874758346637,174.42786366490037</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-35.43941556122956,174.42751328537932</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-35.44008447553023,174.42725583851666</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-35.44077426768188,174.42699204510987</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-35.441481462477995,174.42685942354322</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>-35.4421869369964,174.42671852314405</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>-35.442900558117614,174.42668089731845</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>-35.443598553756836,174.4266743196041</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>-35.44426943384893,174.42676797077533</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>-35.44492492828136,174.42700362911907</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>-35.445516102368735,174.42745132630372</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-35.433587781410004,174.43079789047076</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-35.43408521254982,174.43023563537218</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-35.43472748099146,174.42988985073654</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-35.43537324072044,174.4294539578783</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-35.436090751181766,174.4293384630032</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-35.43673297975889,174.42885250857918</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-35.4374326650925,174.42856417689393</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-35.43806740361336,174.42814649105964</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-35.43877929450456,174.4279800195521</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-35.439448809217566,174.4276375694592</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-35.44009789953605,174.4273194101575</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>-35.440787010326275,174.42705877090594</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>-35.44149177909315,174.42691665634717</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>-35.44219418130439,174.42678913396185</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>-35.44290018731079,174.42667562902744</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>-35.443597919933254,174.42669468489365</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>-35.44425125964915,174.42684609961978</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>-35.444869103355906,174.42711246781846</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>-35.44548625439625,174.42749318772763</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-35.43349222604484,174.43064511271268</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-35.43406647708863,174.4301916329125</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-35.43470102695006,174.42980696592716</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-35.43537728117961,174.4294655691961</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-35.436064186055575,174.42924106804492</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-35.43671692248879,174.42880368725844</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-35.43738629023274,174.42844323759036</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-35.4380842915812,174.42820047899866</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-35.438726704907175,174.42778705723208</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-35.43943907105319,174.42760116723184</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-35.4400941043298,174.42730143730066</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-35.440793497724634,174.42709274171006</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-35.44148789097356,174.42689508646365</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>-35.442186279100525,174.4267121106039</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>-35.44289613545866,174.42661806197526</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>-35.44360034361694,174.4266168092822</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>-35.44425543298832,174.42682815892542</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>-35.44491829386124,174.4270165638904</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>-35.445494328353156,174.4274818641048</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.433539958137324,174.430721428615</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.434089241919985,174.43024509883514</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.434723233937156,174.42987654400957</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-35.43537976317539,174.42947270186338</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-35.43608359684774,174.42931223323907</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-35.43675363119372,174.42891529834452</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-35.437449605776436,174.428608356</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-35.43810747071626,174.4282745788854</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-35.438757585613004,174.42790036488296</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-35.43943136827862,174.42757237352973</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-35.440091345201886,174.4272883709814</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-35.44079585367216,174.427105078477</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-35.441483459869914,174.4268705043294</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-35.442189564838415,174.42674413687078</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-35.44290295290612,174.42671492169882</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>-35.443597977687205,174.42669282921477</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>-35.44426989839484,174.42676597374125</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>-35.44490610567562,174.42704032652654</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>-35.44549651957355,174.42747879094514</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0075/nzd0075.xlsx
+++ b/data/nzd0075/nzd0075.xlsx
@@ -25846,7 +25846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25937,35 +25937,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26024,27 +26029,28 @@
       <c r="P2" t="n">
         <v>374.417172896247</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.42736303006384 -35.43143933313357, 174.43546429200433 -35.43650619211154)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4273630300638</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.43143933313357</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4354642920043</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.43650619211154</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4314136610341</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.43397276262255</v>
       </c>
     </row>
@@ -26101,27 +26107,28 @@
       <c r="P3" t="n">
         <v>380.7731812149665</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.42645458610247 -35.43247521778813, 174.43550202966065 -35.43632736798117)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4264545861025</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.43247521778813</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4355020296607</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.43632736798117</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4309783078816</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.43440129288465</v>
       </c>
     </row>
@@ -26178,27 +26185,28 @@
       <c r="P4" t="n">
         <v>373.1010814755833</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.4259952450807 -35.433484372834926, 174.43549812111962 -35.436517277733294)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4259952450807</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.43348437283493</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4354981211196</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.43651727773329</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4307466831002</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.43500082528411</v>
       </c>
     </row>
@@ -26255,27 +26263,28 @@
       <c r="P5" t="n">
         <v>376.51496755145</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.42565743078293 -35.434052058106424, 174.43504385967424 -35.4373182139813)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4256574307829</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.43405205810642</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4350438596742</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.4373182139813</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4303506452286</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.43568513604386</v>
       </c>
     </row>
@@ -26332,27 +26341,28 @@
       <c r="P6" t="n">
         <v>394.362137720537</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.42521469731042 -35.434965881618616, 174.43489193924523 -35.43760533851526)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4252146973104</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.43496588161862</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4348919392452</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.43760533851526</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4300533182778</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.43628561006694</v>
       </c>
     </row>
@@ -26409,27 +26419,28 @@
       <c r="P7" t="n">
         <v>375.4501824870133</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.4250481473718 -35.43548165099011, 174.43451244596943 -35.4385943467826)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.4250481473718</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.43548165099011</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.4345124459694</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.4385943467826</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.4297802966706</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.43703799888635</v>
       </c>
     </row>
@@ -26486,27 +26497,28 @@
       <c r="P8" t="n">
         <v>387.7671445573165</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.42470777874723 -35.43595382039185, 174.433943619988 -35.439495264209)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.4247077787472</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.43595382039185</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.433943619988</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.439495264209</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.4293256993676</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.43772454230043</v>
       </c>
     </row>
@@ -26563,27 +26575,28 @@
       <c r="P9" t="n">
         <v>388.1440786316545</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.4242475843208 -35.4368477031251, 174.43377556426566 -35.439828064194465)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.4242475843208</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.4368477031251</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.4337755642657</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.43982806419447</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.4290115742932</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.43833788365978</v>
       </c>
     </row>
@@ -26640,27 +26653,28 @@
       <c r="P10" t="n">
         <v>383.7719250983631</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.42387964230818 -35.437661703302346, 174.43355784317393 -35.440299299811635)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.4238796423082</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.43766170330235</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.4335578431739</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.44029929981163</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.4287187427411</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.43898050155699</v>
       </c>
     </row>
@@ -26717,27 +26731,28 @@
       <c r="P11" t="n">
         <v>380.9826714484478</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.42360290677834 -35.43836939203575, 174.43329889343508 -35.44096313804567)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.4236029067783</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.43836939203575</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.4332988934351</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.44096313804567</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.4284509001067</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.43966626504071</v>
       </c>
     </row>
@@ -26794,27 +26809,28 @@
       <c r="P12" t="n">
         <v>386.5082256506442</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.42323785278307 -35.439235946293344, 174.43311578956184 -35.44132172221768)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.4232378527831</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.43923594629334</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.4331157895618</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.44132172221768</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.4281768211725</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.44027883425551</v>
       </c>
     </row>
@@ -26871,27 +26887,28 @@
       <c r="P13" t="n">
         <v>381.8300840381655</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.4230541139651 -35.44002216688847, 174.43298890213026 -35.441919324669854)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.4230541139651</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.44002216688847</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.4329889021303</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.44191932466985</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.4280215080477</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.44097074577916</v>
       </c>
     </row>
@@ -26948,27 +26965,28 @@
       <c r="P14" t="n">
         <v>386.7336776374772</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.42278635500796 -35.440747186284284, 174.43274936876563 -35.44254300933493)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.422786355008</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.44074718628428</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.4327493687656</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.44254300933493</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.4277678618868</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.44164509780961</v>
       </c>
     </row>
@@ -27025,27 +27043,28 @@
       <c r="P15" t="n">
         <v>384.8791151190835</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.42258252685275 -35.441762530352335, 174.43270567401962 -35.44280103605674)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.4225825268528</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.44176253035234</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.4327056740196</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.44280103605674</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.4276441004362</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.44228178320454</v>
       </c>
     </row>
@@ -27102,27 +27121,28 @@
       <c r="P16" t="n">
         <v>384.0406041957327</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.42246869203925 -35.44260400882852, 174.43263374074482 -35.44331939743271)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.4224686920392</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-35.44260400882852</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.4326337407448</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-35.44331939743271</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.427551216392</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-35.44296170313061</v>
       </c>
     </row>
@@ -27179,27 +27199,28 @@
       <c r="P17" t="n">
         <v>389.9388337960243</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.42238453062993 -35.44373198699505, 174.43257988515717 -35.443414612132294)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.4223845306299</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-35.44373198699505</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.4325798851572</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-35.44341461213229</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.4274822078935</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-35.44357329956367</v>
       </c>
     </row>
@@ -27256,27 +27277,28 @@
       <c r="P18" t="n">
         <v>386.078972367945</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.42265567623994 -35.44522594647713, 174.43246851188326 -35.442943230389794)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.4226556762399</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-35.44522594647713</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.4324685118833</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-35.44294323038979</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.4275620940616</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-35.44408458843346</v>
       </c>
     </row>
@@ -27333,27 +27355,28 @@
       <c r="P19" t="n">
         <v>378.4785601426117</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.42346164767105 -35.446741566617604, 174.43210282879576 -35.44230928967168)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.423461647671</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-35.4467415666176</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.4321028287958</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-35.44230928967168</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.4277822382334</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-35.44452542814464</v>
       </c>
     </row>
@@ -27410,27 +27433,28 @@
       <c r="P20" t="n">
         <v>369.1213380005534</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.4244006191538 -35.44769121609917, 174.43208780225422 -35.442209989657854)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.4244006191538</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-35.44769121609917</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.4320878022542</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-35.44220998965785</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.428244210704</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-35.44495060287851</v>
       </c>
     </row>

--- a/data/nzd0075/nzd0075.xlsx
+++ b/data/nzd0075/nzd0075.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U336"/>
+  <dimension ref="A1:U339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22364,6 +22364,185 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>379.2</v>
+      </c>
+      <c r="C337" t="n">
+        <v>390.2969230769231</v>
+      </c>
+      <c r="D337" t="n">
+        <v>374.91</v>
+      </c>
+      <c r="E337" t="n">
+        <v>377.1881818181818</v>
+      </c>
+      <c r="F337" t="n">
+        <v>388.99</v>
+      </c>
+      <c r="G337" t="n">
+        <v>373.55</v>
+      </c>
+      <c r="H337" t="n">
+        <v>382.9181818181818</v>
+      </c>
+      <c r="I337" t="n">
+        <v>384.2369230769231</v>
+      </c>
+      <c r="J337" t="n">
+        <v>379.1169230769231</v>
+      </c>
+      <c r="K337" t="n">
+        <v>379.1</v>
+      </c>
+      <c r="L337" t="n">
+        <v>379.875</v>
+      </c>
+      <c r="M337" t="n">
+        <v>380.94</v>
+      </c>
+      <c r="N337" t="n">
+        <v>377.295</v>
+      </c>
+      <c r="O337" t="inlineStr"/>
+      <c r="P337" t="inlineStr"/>
+      <c r="Q337" t="inlineStr"/>
+      <c r="R337" t="inlineStr"/>
+      <c r="S337" t="inlineStr"/>
+      <c r="T337" t="inlineStr"/>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>389.1733333333333</v>
+      </c>
+      <c r="C338" t="n">
+        <v>392.3069230769231</v>
+      </c>
+      <c r="D338" t="n">
+        <v>383.5433333333333</v>
+      </c>
+      <c r="E338" t="n">
+        <v>381.5045454545455</v>
+      </c>
+      <c r="F338" t="n">
+        <v>397.59</v>
+      </c>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
+      <c r="N338" t="inlineStr"/>
+      <c r="O338" t="n">
+        <v>381.8333333333333</v>
+      </c>
+      <c r="P338" t="n">
+        <v>390.27</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>393.5842857142857</v>
+      </c>
+      <c r="R338" t="n">
+        <v>387.3469230769231</v>
+      </c>
+      <c r="S338" t="n">
+        <v>381.9542857142857</v>
+      </c>
+      <c r="T338" t="n">
+        <v>368.2566666666667</v>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>369.43</v>
+      </c>
+      <c r="C339" t="n">
+        <v>379.0915384615385</v>
+      </c>
+      <c r="D339" t="n">
+        <v>369.14</v>
+      </c>
+      <c r="E339" t="n">
+        <v>376.3954545454546</v>
+      </c>
+      <c r="F339" t="n">
+        <v>379.86</v>
+      </c>
+      <c r="G339" t="n">
+        <v>361.84</v>
+      </c>
+      <c r="H339" t="n">
+        <v>369.8954545454546</v>
+      </c>
+      <c r="I339" t="n">
+        <v>375.9315384615385</v>
+      </c>
+      <c r="J339" t="n">
+        <v>368.0215384615385</v>
+      </c>
+      <c r="K339" t="n">
+        <v>369.52</v>
+      </c>
+      <c r="L339" t="n">
+        <v>371.365</v>
+      </c>
+      <c r="M339" t="n">
+        <v>376.53</v>
+      </c>
+      <c r="N339" t="n">
+        <v>376.495</v>
+      </c>
+      <c r="O339" t="n">
+        <v>382.1</v>
+      </c>
+      <c r="P339" t="n">
+        <v>373.985</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>382.1885714285714</v>
+      </c>
+      <c r="R339" t="n">
+        <v>380.4315384615385</v>
+      </c>
+      <c r="S339" t="n">
+        <v>370.8085714285714</v>
+      </c>
+      <c r="T339" t="n">
+        <v>359.85</v>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22375,7 +22554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25833,6 +26012,36 @@
       </c>
       <c r="B345" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -26006,28 +26215,28 @@
         <v>0.0659</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02984845065682064</v>
+        <v>0.0381802812118307</v>
       </c>
       <c r="J2" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005588845419862709</v>
+        <v>0.0009261062861937175</v>
       </c>
       <c r="M2" t="n">
-        <v>6.928116479593831</v>
+        <v>6.934114981631256</v>
       </c>
       <c r="N2" t="n">
-        <v>81.79019177669871</v>
+        <v>81.78395485857219</v>
       </c>
       <c r="O2" t="n">
-        <v>9.043792997227364</v>
+        <v>9.043448173046174</v>
       </c>
       <c r="P2" t="n">
-        <v>374.417172896247</v>
+        <v>374.3346611294737</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26084,28 +26293,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1232529770593236</v>
+        <v>0.1302152112408175</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01238390093514474</v>
+        <v>0.01401720352941749</v>
       </c>
       <c r="M3" t="n">
-        <v>6.097954165402923</v>
+        <v>6.103827721143759</v>
       </c>
       <c r="N3" t="n">
-        <v>62.41395080416005</v>
+        <v>62.22664777974524</v>
       </c>
       <c r="O3" t="n">
-        <v>7.900250046939024</v>
+        <v>7.888386893386077</v>
       </c>
       <c r="P3" t="n">
-        <v>380.7731812149665</v>
+        <v>380.7034654074137</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26162,28 +26371,28 @@
         <v>0.0636</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.00346660666740502</v>
+        <v>0.002238304753142819</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L4" t="n">
-        <v>9.6833494727111e-06</v>
+        <v>4.100938220008565e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>6.232020456510644</v>
+        <v>6.223075775215706</v>
       </c>
       <c r="N4" t="n">
-        <v>64.91550902976358</v>
+        <v>64.69905585049776</v>
       </c>
       <c r="O4" t="n">
-        <v>8.057016136868759</v>
+        <v>8.043572331402121</v>
       </c>
       <c r="P4" t="n">
-        <v>373.1010814755833</v>
+        <v>373.0449114808957</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26240,28 +26449,28 @@
         <v>0.0601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04665294996411758</v>
+        <v>0.04801999413895152</v>
       </c>
       <c r="J5" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001432630468288121</v>
+        <v>0.001552510832752652</v>
       </c>
       <c r="M5" t="n">
-        <v>6.456259228885085</v>
+        <v>6.41103795891536</v>
       </c>
       <c r="N5" t="n">
-        <v>77.03672143524101</v>
+        <v>76.32566713489426</v>
       </c>
       <c r="O5" t="n">
-        <v>8.77705653594877</v>
+        <v>8.736456211467797</v>
       </c>
       <c r="P5" t="n">
-        <v>376.51496755145</v>
+        <v>376.501366838749</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26318,28 +26527,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09095778328673192</v>
+        <v>-0.09781592311074014</v>
       </c>
       <c r="J6" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00486027082028484</v>
+        <v>0.005707065339218276</v>
       </c>
       <c r="M6" t="n">
-        <v>7.335595416191177</v>
+        <v>7.331396245755739</v>
       </c>
       <c r="N6" t="n">
-        <v>85.69455998550947</v>
+        <v>85.46148275452092</v>
       </c>
       <c r="O6" t="n">
-        <v>9.257135625316801</v>
+        <v>9.244537995731367</v>
       </c>
       <c r="P6" t="n">
-        <v>394.362137720537</v>
+        <v>394.4311680579056</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26396,28 +26605,28 @@
         <v>0.0623</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2274337059011469</v>
+        <v>-0.2300904830156576</v>
       </c>
       <c r="J7" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03441563788982016</v>
+        <v>0.03558394032047429</v>
       </c>
       <c r="M7" t="n">
-        <v>6.380292461655745</v>
+        <v>6.377047586238898</v>
       </c>
       <c r="N7" t="n">
-        <v>74.00935312305624</v>
+        <v>73.77471780297688</v>
       </c>
       <c r="O7" t="n">
-        <v>8.602868889100673</v>
+        <v>8.589221024224308</v>
       </c>
       <c r="P7" t="n">
-        <v>375.4501824870133</v>
+        <v>375.4772072228717</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26474,28 +26683,28 @@
         <v>0.0571</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3439034924445155</v>
+        <v>-0.3474190288727197</v>
       </c>
       <c r="J8" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K8" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06977371253219278</v>
+        <v>0.07182590715543202</v>
       </c>
       <c r="M8" t="n">
-        <v>6.702199710729552</v>
+        <v>6.701915996835828</v>
       </c>
       <c r="N8" t="n">
-        <v>79.57661121681647</v>
+        <v>79.37734827599529</v>
       </c>
       <c r="O8" t="n">
-        <v>8.920572359261286</v>
+        <v>8.909396628054859</v>
       </c>
       <c r="P8" t="n">
-        <v>387.7671445573165</v>
+        <v>387.8029628582938</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26552,28 +26761,28 @@
         <v>0.0701</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3467387179540921</v>
+        <v>-0.345589242826171</v>
       </c>
       <c r="J9" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K9" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08300399816876858</v>
+        <v>0.08356412874708807</v>
       </c>
       <c r="M9" t="n">
-        <v>6.364179246481164</v>
+        <v>6.348473366099185</v>
       </c>
       <c r="N9" t="n">
-        <v>67.04083326205132</v>
+        <v>66.70179782032105</v>
       </c>
       <c r="O9" t="n">
-        <v>8.187846680419176</v>
+        <v>8.167116860944322</v>
       </c>
       <c r="P9" t="n">
-        <v>388.1440786316545</v>
+        <v>388.1326174752591</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26630,28 +26839,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3138375603414057</v>
+        <v>-0.316937118360114</v>
       </c>
       <c r="J10" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K10" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0603990195075681</v>
+        <v>0.06224207448568175</v>
       </c>
       <c r="M10" t="n">
-        <v>6.74263997223693</v>
+        <v>6.734570558908553</v>
       </c>
       <c r="N10" t="n">
-        <v>75.99048937828447</v>
+        <v>75.72349594348478</v>
       </c>
       <c r="O10" t="n">
-        <v>8.717252398450125</v>
+        <v>8.701924841291424</v>
       </c>
       <c r="P10" t="n">
-        <v>383.7719250983631</v>
+        <v>383.8037042791613</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26708,28 +26917,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1772777409298034</v>
+        <v>-0.180289975548339</v>
       </c>
       <c r="J11" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K11" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01988293322973711</v>
+        <v>0.02081415447535673</v>
       </c>
       <c r="M11" t="n">
-        <v>6.943131942654409</v>
+        <v>6.929637873951412</v>
       </c>
       <c r="N11" t="n">
-        <v>77.36982113965121</v>
+        <v>77.04564578551306</v>
       </c>
       <c r="O11" t="n">
-        <v>8.796011660954708</v>
+        <v>8.777564912064909</v>
       </c>
       <c r="P11" t="n">
-        <v>380.9826714484478</v>
+        <v>381.0133264301714</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26786,28 +26995,28 @@
         <v>0.0878</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.230297585183459</v>
+        <v>-0.2372276908081372</v>
       </c>
       <c r="J12" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K12" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04153827987755876</v>
+        <v>0.0443978754788007</v>
       </c>
       <c r="M12" t="n">
-        <v>6.184172627473952</v>
+        <v>6.175157404649712</v>
       </c>
       <c r="N12" t="n">
-        <v>60.85011838426954</v>
+        <v>60.72927630376223</v>
       </c>
       <c r="O12" t="n">
-        <v>7.800648587410507</v>
+        <v>7.792899094930091</v>
       </c>
       <c r="P12" t="n">
-        <v>386.5082256506442</v>
+        <v>386.5796239923381</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26864,28 +27073,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.178896629064448</v>
+        <v>-0.1768562643359785</v>
       </c>
       <c r="J13" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K13" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02362350040439032</v>
+        <v>0.02342080656941803</v>
       </c>
       <c r="M13" t="n">
-        <v>6.448783918354352</v>
+        <v>6.420963600244313</v>
       </c>
       <c r="N13" t="n">
-        <v>64.98623334201089</v>
+        <v>64.60828304929228</v>
       </c>
       <c r="O13" t="n">
-        <v>8.061403931202733</v>
+        <v>8.037927783284214</v>
       </c>
       <c r="P13" t="n">
-        <v>381.8300840381655</v>
+        <v>381.809028073513</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26942,28 +27151,28 @@
         <v>0.0901</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1706091398877562</v>
+        <v>-0.1782185005107972</v>
       </c>
       <c r="J14" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K14" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02221484851350619</v>
+        <v>0.02447034004017468</v>
       </c>
       <c r="M14" t="n">
-        <v>6.199092186515984</v>
+        <v>6.190748598697052</v>
       </c>
       <c r="N14" t="n">
-        <v>62.98691797912822</v>
+        <v>62.76694995951276</v>
       </c>
       <c r="O14" t="n">
-        <v>7.936429800554417</v>
+        <v>7.922559558596752</v>
       </c>
       <c r="P14" t="n">
-        <v>386.7336776374772</v>
+        <v>386.8126590267558</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27020,28 +27229,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0467587932664696</v>
+        <v>-0.04915820854177533</v>
       </c>
       <c r="J15" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K15" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001324428413275958</v>
+        <v>0.001485479240881715</v>
       </c>
       <c r="M15" t="n">
-        <v>7.147702293961092</v>
+        <v>7.111147114031261</v>
       </c>
       <c r="N15" t="n">
-        <v>81.23930966084535</v>
+        <v>80.72556919896581</v>
       </c>
       <c r="O15" t="n">
-        <v>9.013285175830472</v>
+        <v>8.984740908839042</v>
       </c>
       <c r="P15" t="n">
-        <v>384.8791151190835</v>
+        <v>384.9039005410107</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27098,28 +27307,28 @@
         <v>0.0914</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05572763164459824</v>
+        <v>-0.05644773713200392</v>
       </c>
       <c r="J16" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K16" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002281998726398782</v>
+        <v>0.002360910331763777</v>
       </c>
       <c r="M16" t="n">
-        <v>6.119291413420147</v>
+        <v>6.132753689244479</v>
       </c>
       <c r="N16" t="n">
-        <v>67.52057931746921</v>
+        <v>67.51380112764119</v>
       </c>
       <c r="O16" t="n">
-        <v>8.217090684510499</v>
+        <v>8.216678229530544</v>
       </c>
       <c r="P16" t="n">
-        <v>384.0406041957327</v>
+        <v>384.0482476662802</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27176,28 +27385,28 @@
         <v>0.0806</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02842018459354302</v>
+        <v>-0.03027782466827903</v>
       </c>
       <c r="J17" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K17" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005687867389432277</v>
+        <v>0.0006531344006854845</v>
       </c>
       <c r="M17" t="n">
-        <v>6.240647016700652</v>
+        <v>6.237317932571119</v>
       </c>
       <c r="N17" t="n">
-        <v>71.29782582397043</v>
+        <v>71.05434159496195</v>
       </c>
       <c r="O17" t="n">
-        <v>8.443803990143923</v>
+        <v>8.42937373681829</v>
       </c>
       <c r="P17" t="n">
-        <v>389.9388337960243</v>
+        <v>389.9579730965089</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27254,28 +27463,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0552602835002604</v>
+        <v>0.05017529713056219</v>
       </c>
       <c r="J18" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K18" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002428025767671316</v>
+        <v>0.002028050795166214</v>
       </c>
       <c r="M18" t="n">
-        <v>6.150060995461386</v>
+        <v>6.134678855497647</v>
       </c>
       <c r="N18" t="n">
-        <v>62.65363823057046</v>
+        <v>62.4030626794768</v>
       </c>
       <c r="O18" t="n">
-        <v>7.91540512106427</v>
+        <v>7.899560916878658</v>
       </c>
       <c r="P18" t="n">
-        <v>386.078972367945</v>
+        <v>386.1309713437242</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27332,28 +27541,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05024457647352554</v>
+        <v>0.04552320427327994</v>
       </c>
       <c r="J19" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K19" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001853046504873834</v>
+        <v>0.001538454775398046</v>
       </c>
       <c r="M19" t="n">
-        <v>6.474843127105024</v>
+        <v>6.469777797815844</v>
       </c>
       <c r="N19" t="n">
-        <v>69.08931758136158</v>
+        <v>68.91183352771358</v>
       </c>
       <c r="O19" t="n">
-        <v>8.311998410813226</v>
+        <v>8.301315168556943</v>
       </c>
       <c r="P19" t="n">
-        <v>378.4785601426117</v>
+        <v>378.5265233179875</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27410,28 +27619,28 @@
         <v>0.0822</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.04657539163027068</v>
+        <v>-0.05210952974096963</v>
       </c>
       <c r="J20" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K20" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001924734569217823</v>
+        <v>0.002435622667702475</v>
       </c>
       <c r="M20" t="n">
-        <v>5.895946196532706</v>
+        <v>5.885965694749726</v>
       </c>
       <c r="N20" t="n">
-        <v>56.15009583619612</v>
+        <v>55.98916687664344</v>
       </c>
       <c r="O20" t="n">
-        <v>7.493336762497474</v>
+        <v>7.482590920038556</v>
       </c>
       <c r="P20" t="n">
-        <v>369.1213380005534</v>
+        <v>369.1783449311984</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27469,7 +27678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U336"/>
+  <dimension ref="A1:U339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60841,6 +61050,271 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-35.43351507030951,174.43068163697893</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-35.434099144117916,174.4302683553556</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-35.434712403395984,174.42984261015158</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-35.43538260752919,174.42948087586367</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-35.4360747038029,174.42927962891696</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-35.43673743948557,174.42886606816776</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-35.437418495685826,174.4285272249667</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-35.43808448965133,174.42820111219558</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-35.43874163475822,174.4278418378612</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-35.4394313215951,174.42757219902245</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-35.44009162674563,174.42728970427922</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-35.440802648354264,174.42714065843194</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-35.441478912408165,174.42684527671506</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr"/>
+      <c r="P337" t="inlineStr"/>
+      <c r="Q337" t="inlineStr"/>
+      <c r="R337" t="inlineStr"/>
+      <c r="S337" t="inlineStr"/>
+      <c r="T337" t="inlineStr"/>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-35.43356966294604,174.4307689218899</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-35.43410750689491,174.43028799637094</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-35.43474068069565,174.42993120764208</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-35.43539783298951,174.4295246302739</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-35.43609921666114,174.42936949982155</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
+      <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>-35.44219079465166,174.42675612394967</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>-35.442905571712195,174.426752129007</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>-35.443597218563085,174.42671722038338</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>-35.444271229460945,174.4267602516272</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>-35.44491292476769,174.42702703171923</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>-35.445510357819565,174.4274593829691</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-35.43346159062693,174.43059613172</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-35.43405252309583,174.43015886033848</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-35.43469350451493,174.42978339695875</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-35.43537981127608,174.42947284009335</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-35.436048680193764,174.429184219514</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-35.436698075060114,174.42874638270362</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-35.4373686853478,174.42839732657433</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-35.43805775757931,174.42811565438708</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-35.4387100309461,174.42772587724522</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>-35.43940448787461,174.42747189227597</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>-35.44007245921428,174.42719893338193</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>-35.440793613814826,174.4270933496087</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>-35.441477361034075,174.4268366702801</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>-35.442191093694206,174.4267590387409</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>-35.44289299129509,174.4265733912632</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>-35.44360112278732,174.4265917733411</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>-35.444288275426295,174.42668697268465</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>-35.44496628736292,174.42692299343938</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>-35.44556014389529,174.42738955849785</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0075/nzd0075.xlsx
+++ b/data/nzd0075/nzd0075.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U339"/>
+  <dimension ref="A1:U343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22543,6 +22543,282 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>374.2966666666667</v>
+      </c>
+      <c r="C340" t="n">
+        <v>382.1923076923077</v>
+      </c>
+      <c r="D340" t="n">
+        <v>379.4766666666667</v>
+      </c>
+      <c r="E340" t="n">
+        <v>370.4654545454546</v>
+      </c>
+      <c r="F340" t="n">
+        <v>389.74</v>
+      </c>
+      <c r="G340" t="n">
+        <v>365.2366666666667</v>
+      </c>
+      <c r="H340" t="n">
+        <v>387.5854545454546</v>
+      </c>
+      <c r="I340" t="n">
+        <v>380.0823076923077</v>
+      </c>
+      <c r="J340" t="n">
+        <v>383.9423076923077</v>
+      </c>
+      <c r="K340" t="n">
+        <v>375.7066666666667</v>
+      </c>
+      <c r="L340" t="n">
+        <v>383.625</v>
+      </c>
+      <c r="M340" t="n">
+        <v>380.2033333333334</v>
+      </c>
+      <c r="N340" t="n">
+        <v>381.225</v>
+      </c>
+      <c r="O340" t="n">
+        <v>382.0366666666667</v>
+      </c>
+      <c r="P340" t="n">
+        <v>390.125</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>394.3628571428572</v>
+      </c>
+      <c r="R340" t="n">
+        <v>387.0623076923077</v>
+      </c>
+      <c r="S340" t="n">
+        <v>375.7428571428572</v>
+      </c>
+      <c r="T340" t="n">
+        <v>367.5433333333334</v>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>369.2233333333333</v>
+      </c>
+      <c r="C341" t="n">
+        <v>380.0930769230769</v>
+      </c>
+      <c r="D341" t="n">
+        <v>372.5833333333333</v>
+      </c>
+      <c r="E341" t="n">
+        <v>375.1481818181818</v>
+      </c>
+      <c r="F341" t="n">
+        <v>388.11</v>
+      </c>
+      <c r="G341" t="n">
+        <v>364.0233333333333</v>
+      </c>
+      <c r="H341" t="n">
+        <v>381.2081818181818</v>
+      </c>
+      <c r="I341" t="n">
+        <v>378.2030769230769</v>
+      </c>
+      <c r="J341" t="n">
+        <v>378.1130769230769</v>
+      </c>
+      <c r="K341" t="n">
+        <v>371.6233333333333</v>
+      </c>
+      <c r="L341" t="n">
+        <v>377.81</v>
+      </c>
+      <c r="M341" t="n">
+        <v>371.4666666666666</v>
+      </c>
+      <c r="N341" t="n">
+        <v>377.4</v>
+      </c>
+      <c r="O341" t="n">
+        <v>378.9433333333333</v>
+      </c>
+      <c r="P341" t="n">
+        <v>377.64</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>383.4114285714285</v>
+      </c>
+      <c r="R341" t="n">
+        <v>383.2030769230769</v>
+      </c>
+      <c r="S341" t="n">
+        <v>369.5314285714285</v>
+      </c>
+      <c r="T341" t="n">
+        <v>361.1966666666667</v>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>367.1166666666667</v>
+      </c>
+      <c r="C342" t="n">
+        <v>384.3992307692308</v>
+      </c>
+      <c r="D342" t="n">
+        <v>367.9866666666667</v>
+      </c>
+      <c r="E342" t="n">
+        <v>382.3545454545454</v>
+      </c>
+      <c r="F342" t="n">
+        <v>393.86</v>
+      </c>
+      <c r="G342" t="n">
+        <v>377.3766666666667</v>
+      </c>
+      <c r="H342" t="n">
+        <v>383.0445454545454</v>
+      </c>
+      <c r="I342" t="n">
+        <v>389.0292307692308</v>
+      </c>
+      <c r="J342" t="n">
+        <v>378.3792307692308</v>
+      </c>
+      <c r="K342" t="n">
+        <v>377.6466666666667</v>
+      </c>
+      <c r="L342" t="n">
+        <v>381.875</v>
+      </c>
+      <c r="M342" t="n">
+        <v>382.9033333333334</v>
+      </c>
+      <c r="N342" t="n">
+        <v>382.705</v>
+      </c>
+      <c r="O342" t="n">
+        <v>384.5166666666667</v>
+      </c>
+      <c r="P342" t="n">
+        <v>386.355</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>392.3057142857143</v>
+      </c>
+      <c r="R342" t="n">
+        <v>385.8892307692308</v>
+      </c>
+      <c r="S342" t="n">
+        <v>382.9757142857143</v>
+      </c>
+      <c r="T342" t="n">
+        <v>365.4533333333334</v>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>368.1466666666667</v>
+      </c>
+      <c r="C343" t="n">
+        <v>379.4138461538461</v>
+      </c>
+      <c r="D343" t="n">
+        <v>371.8266666666667</v>
+      </c>
+      <c r="E343" t="n">
+        <v>378.3736363636364</v>
+      </c>
+      <c r="F343" t="n">
+        <v>388.33</v>
+      </c>
+      <c r="G343" t="n">
+        <v>370.6366666666667</v>
+      </c>
+      <c r="H343" t="n">
+        <v>374.4936363636364</v>
+      </c>
+      <c r="I343" t="n">
+        <v>377.5738461538461</v>
+      </c>
+      <c r="J343" t="n">
+        <v>377.0038461538462</v>
+      </c>
+      <c r="K343" t="n">
+        <v>374.0566666666667</v>
+      </c>
+      <c r="L343" t="n">
+        <v>376.805</v>
+      </c>
+      <c r="M343" t="n">
+        <v>376.5033333333334</v>
+      </c>
+      <c r="N343" t="n">
+        <v>379.335</v>
+      </c>
+      <c r="O343" t="n">
+        <v>392.5766666666667</v>
+      </c>
+      <c r="P343" t="n">
+        <v>380.965</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>388.0757142857143</v>
+      </c>
+      <c r="R343" t="n">
+        <v>385.4638461538461</v>
+      </c>
+      <c r="S343" t="n">
+        <v>373.7657142857143</v>
+      </c>
+      <c r="T343" t="n">
+        <v>359.8333333333334</v>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22554,7 +22830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26042,6 +26318,46 @@
       </c>
       <c r="B348" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -26215,28 +26531,28 @@
         <v>0.0659</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0381802812118307</v>
+        <v>0.02325609121626703</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009261062861937175</v>
+        <v>0.0003520137555530489</v>
       </c>
       <c r="M2" t="n">
-        <v>6.934114981631256</v>
+        <v>6.921014368173154</v>
       </c>
       <c r="N2" t="n">
-        <v>81.78395485857219</v>
+        <v>81.21758515871993</v>
       </c>
       <c r="O2" t="n">
-        <v>9.043448173046174</v>
+        <v>9.012079957408275</v>
       </c>
       <c r="P2" t="n">
-        <v>374.3346611294737</v>
+        <v>374.4838144034453</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26293,28 +26609,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1302152112408175</v>
+        <v>0.1232741537242594</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01401720352941749</v>
+        <v>0.01293078554899663</v>
       </c>
       <c r="M3" t="n">
-        <v>6.103827721143759</v>
+        <v>6.055156415052668</v>
       </c>
       <c r="N3" t="n">
-        <v>62.22664777974524</v>
+        <v>61.51020294797626</v>
       </c>
       <c r="O3" t="n">
-        <v>7.888386893386077</v>
+        <v>7.842844059904306</v>
       </c>
       <c r="P3" t="n">
-        <v>380.7034654074137</v>
+        <v>380.7736633301819</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26371,28 +26687,28 @@
         <v>0.0636</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002238304753142819</v>
+        <v>0.001870961130745205</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L4" t="n">
-        <v>4.100938220008565e-06</v>
+        <v>2.939253067046899e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>6.223075775215706</v>
+        <v>6.185542391078894</v>
       </c>
       <c r="N4" t="n">
-        <v>64.69905585049776</v>
+        <v>64.08384866107743</v>
       </c>
       <c r="O4" t="n">
-        <v>8.043572331402121</v>
+        <v>8.005238825986233</v>
       </c>
       <c r="P4" t="n">
-        <v>373.0449114808957</v>
+        <v>373.0486501406029</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26449,28 +26765,28 @@
         <v>0.0601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04801999413895152</v>
+        <v>0.04491366736373158</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001552510832752652</v>
+        <v>0.001395403474967138</v>
       </c>
       <c r="M5" t="n">
-        <v>6.41103795891536</v>
+        <v>6.376040184684662</v>
       </c>
       <c r="N5" t="n">
-        <v>76.32566713489426</v>
+        <v>75.59279875241074</v>
       </c>
       <c r="O5" t="n">
-        <v>8.736456211467797</v>
+        <v>8.694411926772894</v>
       </c>
       <c r="P5" t="n">
-        <v>376.501366838749</v>
+        <v>376.5324237018634</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26527,28 +26843,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09781592311074014</v>
+        <v>-0.1030142596992623</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005707065339218276</v>
+        <v>0.006510820153994068</v>
       </c>
       <c r="M6" t="n">
-        <v>7.331396245755739</v>
+        <v>7.272292078373304</v>
       </c>
       <c r="N6" t="n">
-        <v>85.46148275452092</v>
+        <v>84.45286375766699</v>
       </c>
       <c r="O6" t="n">
-        <v>9.244537995731367</v>
+        <v>9.189823924192835</v>
       </c>
       <c r="P6" t="n">
-        <v>394.4311680579056</v>
+        <v>394.483588689645</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26605,28 +26921,28 @@
         <v>0.0623</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2300904830156576</v>
+        <v>-0.2306988441325493</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03558394032047429</v>
+        <v>0.03660016075213091</v>
       </c>
       <c r="M7" t="n">
-        <v>6.377047586238898</v>
+        <v>6.355592944727622</v>
       </c>
       <c r="N7" t="n">
-        <v>73.77471780297688</v>
+        <v>73.18891283441327</v>
       </c>
       <c r="O7" t="n">
-        <v>8.589221024224308</v>
+        <v>8.55505188963885</v>
       </c>
       <c r="P7" t="n">
-        <v>375.4772072228717</v>
+        <v>375.4832781031167</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26683,28 +26999,28 @@
         <v>0.0571</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3474190288727197</v>
+        <v>-0.3403022781602978</v>
       </c>
       <c r="J8" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07182590715543202</v>
+        <v>0.07069513146695039</v>
       </c>
       <c r="M8" t="n">
-        <v>6.701915996835828</v>
+        <v>6.676414250331913</v>
       </c>
       <c r="N8" t="n">
-        <v>79.37734827599529</v>
+        <v>78.74160191141115</v>
       </c>
       <c r="O8" t="n">
-        <v>8.909396628054859</v>
+        <v>8.873646483346695</v>
       </c>
       <c r="P8" t="n">
-        <v>387.8029628582938</v>
+        <v>387.7307153663356</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26761,28 +27077,28 @@
         <v>0.0701</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.345589242826171</v>
+        <v>-0.3400356145876541</v>
       </c>
       <c r="J9" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K9" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08356412874708807</v>
+        <v>0.08306061787762187</v>
       </c>
       <c r="M9" t="n">
-        <v>6.348473366099185</v>
+        <v>6.30591041780908</v>
       </c>
       <c r="N9" t="n">
-        <v>66.70179782032105</v>
+        <v>66.13530983451463</v>
       </c>
       <c r="O9" t="n">
-        <v>8.167116860944322</v>
+        <v>8.132361885363601</v>
       </c>
       <c r="P9" t="n">
-        <v>388.1326174752591</v>
+        <v>388.0761009100065</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26839,28 +27155,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.316937118360114</v>
+        <v>-0.3068333320214212</v>
       </c>
       <c r="J10" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K10" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06224207448568175</v>
+        <v>0.06005375205195829</v>
       </c>
       <c r="M10" t="n">
-        <v>6.734570558908553</v>
+        <v>6.694080095944274</v>
       </c>
       <c r="N10" t="n">
-        <v>75.72349594348478</v>
+        <v>75.00974477789242</v>
       </c>
       <c r="O10" t="n">
-        <v>8.701924841291424</v>
+        <v>8.660816634584318</v>
       </c>
       <c r="P10" t="n">
-        <v>383.8037042791613</v>
+        <v>383.7003788672149</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26917,28 +27233,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.180289975548339</v>
+        <v>-0.1846528740560791</v>
       </c>
       <c r="J11" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K11" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02081415447535673</v>
+        <v>0.02243426483170452</v>
       </c>
       <c r="M11" t="n">
-        <v>6.929637873951412</v>
+        <v>6.870575321720636</v>
       </c>
       <c r="N11" t="n">
-        <v>77.04564578551306</v>
+        <v>76.15556461378392</v>
       </c>
       <c r="O11" t="n">
-        <v>8.777564912064909</v>
+        <v>8.726715568516251</v>
       </c>
       <c r="P11" t="n">
-        <v>381.0133264301714</v>
+        <v>381.057674579207</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26995,28 +27311,28 @@
         <v>0.0878</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2372276908081372</v>
+        <v>-0.2384395493950989</v>
       </c>
       <c r="J12" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K12" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0443978754788007</v>
+        <v>0.04601939075495542</v>
       </c>
       <c r="M12" t="n">
-        <v>6.175157404649712</v>
+        <v>6.13036820408453</v>
       </c>
       <c r="N12" t="n">
-        <v>60.72927630376223</v>
+        <v>60.05000204207641</v>
       </c>
       <c r="O12" t="n">
-        <v>7.792899094930091</v>
+        <v>7.749193638184325</v>
       </c>
       <c r="P12" t="n">
-        <v>386.5796239923381</v>
+        <v>386.5921983413592</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27073,28 +27389,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1768562643359785</v>
+        <v>-0.1754853680625772</v>
       </c>
       <c r="J13" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K13" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02342080656941803</v>
+        <v>0.02364533847990902</v>
       </c>
       <c r="M13" t="n">
-        <v>6.420963600244313</v>
+        <v>6.386958649701498</v>
       </c>
       <c r="N13" t="n">
-        <v>64.60828304929228</v>
+        <v>64.01720093775567</v>
       </c>
       <c r="O13" t="n">
-        <v>8.037927783284214</v>
+        <v>8.001074986384996</v>
       </c>
       <c r="P13" t="n">
-        <v>381.809028073513</v>
+        <v>381.7947469473546</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27151,28 +27467,28 @@
         <v>0.0901</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1782185005107972</v>
+        <v>-0.1837786451605221</v>
       </c>
       <c r="J14" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K14" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02447034004017468</v>
+        <v>0.02668338675239701</v>
       </c>
       <c r="M14" t="n">
-        <v>6.190748598697052</v>
+        <v>6.137646350217065</v>
       </c>
       <c r="N14" t="n">
-        <v>62.76694995951276</v>
+        <v>62.05867282088909</v>
       </c>
       <c r="O14" t="n">
-        <v>7.922559558596752</v>
+        <v>7.877732720833393</v>
       </c>
       <c r="P14" t="n">
-        <v>386.8126590267558</v>
+        <v>386.8706571555534</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27229,28 +27545,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04915820854177533</v>
+        <v>-0.04675096418224966</v>
       </c>
       <c r="J15" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K15" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001485479240881715</v>
+        <v>0.001377963521291936</v>
       </c>
       <c r="M15" t="n">
-        <v>7.111147114031261</v>
+        <v>7.072152734059448</v>
       </c>
       <c r="N15" t="n">
-        <v>80.72556919896581</v>
+        <v>80.02095445680028</v>
       </c>
       <c r="O15" t="n">
-        <v>8.984740908839042</v>
+        <v>8.945443223049391</v>
       </c>
       <c r="P15" t="n">
-        <v>384.9039005410107</v>
+        <v>384.8788020991324</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27307,28 +27623,28 @@
         <v>0.0914</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05644773713200392</v>
+        <v>-0.05330374637698768</v>
       </c>
       <c r="J16" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K16" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002360910331763777</v>
+        <v>0.002157590090389738</v>
       </c>
       <c r="M16" t="n">
-        <v>6.132753689244479</v>
+        <v>6.110527121222973</v>
       </c>
       <c r="N16" t="n">
-        <v>67.51380112764119</v>
+        <v>66.95448768926944</v>
       </c>
       <c r="O16" t="n">
-        <v>8.216678229530544</v>
+        <v>8.182572192731907</v>
       </c>
       <c r="P16" t="n">
-        <v>384.0482476662802</v>
+        <v>384.0157699269093</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27385,28 +27701,28 @@
         <v>0.0806</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.03027782466827903</v>
+        <v>-0.02932466708960262</v>
       </c>
       <c r="J17" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K17" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006531344006854845</v>
+        <v>0.0006286982583965095</v>
       </c>
       <c r="M17" t="n">
-        <v>6.237317932571119</v>
+        <v>6.205580772667413</v>
       </c>
       <c r="N17" t="n">
-        <v>71.05434159496195</v>
+        <v>70.36465057349946</v>
       </c>
       <c r="O17" t="n">
-        <v>8.42937373681829</v>
+        <v>8.388363998629259</v>
       </c>
       <c r="P17" t="n">
-        <v>389.9579730965089</v>
+        <v>389.9482232372161</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27463,28 +27779,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05017529713056219</v>
+        <v>0.04469524409108339</v>
       </c>
       <c r="J18" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K18" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002028050795166214</v>
+        <v>0.001656523439122815</v>
       </c>
       <c r="M18" t="n">
-        <v>6.134678855497647</v>
+        <v>6.081677243089714</v>
       </c>
       <c r="N18" t="n">
-        <v>62.4030626794768</v>
+        <v>61.66629970255074</v>
       </c>
       <c r="O18" t="n">
-        <v>7.899560916878658</v>
+        <v>7.852789294419578</v>
       </c>
       <c r="P18" t="n">
-        <v>386.1309713437242</v>
+        <v>386.1871513715089</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27541,28 +27857,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04552320427327994</v>
+        <v>0.03428905321648062</v>
       </c>
       <c r="J19" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K19" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001538454775398046</v>
+        <v>0.0008925281623164416</v>
       </c>
       <c r="M19" t="n">
-        <v>6.469777797815844</v>
+        <v>6.462487739615932</v>
       </c>
       <c r="N19" t="n">
-        <v>68.91183352771358</v>
+        <v>68.5403916973151</v>
       </c>
       <c r="O19" t="n">
-        <v>8.301315168556943</v>
+        <v>8.278912470688109</v>
       </c>
       <c r="P19" t="n">
-        <v>378.5265233179875</v>
+        <v>378.6407531373962</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27619,28 +27935,28 @@
         <v>0.0822</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.05210952974096963</v>
+        <v>-0.06402899860003633</v>
       </c>
       <c r="J20" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K20" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002435622667702475</v>
+        <v>0.00375853042370311</v>
       </c>
       <c r="M20" t="n">
-        <v>5.885965694749726</v>
+        <v>5.867409652288277</v>
       </c>
       <c r="N20" t="n">
-        <v>55.98916687664344</v>
+        <v>55.61179966879769</v>
       </c>
       <c r="O20" t="n">
-        <v>7.482590920038556</v>
+        <v>7.457331940365648</v>
       </c>
       <c r="P20" t="n">
-        <v>369.1783449311984</v>
+        <v>369.301461378392</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27678,7 +27994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U339"/>
+  <dimension ref="A1:U343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61315,6 +61631,434 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-35.433488230121945,174.43063872388544</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-35.43406542413857,174.43018915993576</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-35.43472736089483,174.42988947445374</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-35.4353588938744,174.4294127284938</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-35.436076841554886,174.42928746649378</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-35.43670949333326,174.42878109931252</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-35.43743634739775,174.42857377986311</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-35.43807111743336,174.4281583634971</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-35.43875537922589,174.42789226917958</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-35.4394218168284,174.4275366693464</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>-35.44010007305058,174.42732970321873</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>-35.440801139184586,174.427132755748</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>-35.44148653352441,174.42688755583143</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>-35.44219102267161,174.42675834647798</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>-35.44290545969859,174.42675053754394</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>-35.443596951816176,174.42672579110337</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>-35.44427193101991,174.42675723569806</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>-35.444942663379294,174.4269690519311</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>-35.44551458233345,174.42745345813626</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-35.433460459360354,174.43059432301223</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-35.43405669009188,174.43016864700968</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-35.43470478270691,174.4298187333092</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-35.4353754116657,174.42946019665766</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-35.43607219550657,174.42927043282737</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-35.436705414579365,174.42876869808902</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-35.43741195515331,174.4285101681427</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-35.43806506885791,174.4281390272545</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-35.43873877543298,174.42783134641252</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-35.439410379349425,174.42749391508087</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>-35.440086975641265,174.42726767819994</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>-35.44078324080191,174.42703903208314</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>-35.44147911602598,174.4268464063097</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>-35.442187553773465,174.42672453490056</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>-35.44289581486288,174.4266135070991</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>-35.443600703837056,174.42660523487734</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>-35.444281443772695,174.42671634132367</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>-35.44497240196388,174.42691107209978</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>-35.445552168650245,174.4274007437084</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-35.43344892773814,174.43057588586484</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-35.43407460624534,174.43021072519696</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-35.43468972691873,174.42977156116493</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-35.435400831261695,174.42953324661394</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-35.43608858492985,174.42933052092275</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-35.436750303211085,174.428905179753</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-35.43741897901056,174.42852848541258</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-35.43809991435305,174.4282504224128</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>-35.438739533537685,174.42783412805326</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>-35.439427250792605,174.42755698198928</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>-35.440096131443276,174.42731103704594</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>-35.440806670527905,174.42716172033758</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>-35.4414894035592,174.42690347773978</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>-35.442193803764084,174.42678545403763</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>-35.44290254733777,174.42670915950526</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>-35.44359765661403,174.42670314553118</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>-35.44427482257966,174.4267448051787</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>-35.44490803444604,174.42703656610985</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>-35.44552695976269,174.42743609892622</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-35.433454565825954,174.43058490022895</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-35.43405386408772,174.43016200981245</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-35.434702304344235,174.42981096820523</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-35.435386789081,174.42949289265883</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-35.436072822580726,174.42927273184972</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-35.43672764601336,174.42883629158572</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-35.43738627284692,174.42844319225063</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-35.438063043587164,174.42813255281945</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-35.438735615932266,174.42781975356354</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-35.43941719515508,174.4275193931316</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>-35.440084712027264,174.42725695848665</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>-35.44079355918415,174.42709306353876</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-35.44148286840932,174.42686722312567</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-35.442202842272266,174.4268735536179</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-35.44289838348679,174.42665000098742</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>-35.44359910584128,174.42665658057163</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>-35.44427587112527,174.42674029758686</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>-35.44495212938982,174.4269505965341</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>-35.44556024259884,174.427389420067</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0075/nzd0075.xlsx
+++ b/data/nzd0075/nzd0075.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30029,7 +30029,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-35.43742432339902,174.42854242286214</t>
+          <t>-35.437424323399014,174.42854242286214</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -30475,7 +30475,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-35.436636871148735,174.42856029639097</t>
+          <t>-35.43663687114873,174.42856029639097</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -30729,7 +30729,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-35.43469222711981,174.42977939468153</t>
+          <t>-35.434692227119804,174.42977939468153</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -50484,7 +50484,7 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>-35.44359816220598,174.426686900478</t>
+          <t>-35.44359816220599,174.426686900478</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -51104,7 +51104,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>-35.44220225166867,174.42686779690368</t>
+          <t>-35.442202251668675,174.42686779690368</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">

--- a/data/nzd0075/nzd0075.xlsx
+++ b/data/nzd0075/nzd0075.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U343"/>
+  <dimension ref="A1:U346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22819,6 +22819,213 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>349.2166666666667</v>
+      </c>
+      <c r="C344" t="n">
+        <v>372.5546153846154</v>
+      </c>
+      <c r="D344" t="n">
+        <v>356.5566666666667</v>
+      </c>
+      <c r="E344" t="n">
+        <v>383.0172727272728</v>
+      </c>
+      <c r="F344" t="n">
+        <v>395.22</v>
+      </c>
+      <c r="G344" t="n">
+        <v>375.4866666666667</v>
+      </c>
+      <c r="H344" t="n">
+        <v>367.6972727272728</v>
+      </c>
+      <c r="I344" t="n">
+        <v>372.5446153846154</v>
+      </c>
+      <c r="J344" t="n">
+        <v>366.2546153846154</v>
+      </c>
+      <c r="K344" t="n">
+        <v>361.1566666666667</v>
+      </c>
+      <c r="L344" t="n">
+        <v>374.135</v>
+      </c>
+      <c r="M344" t="n">
+        <v>372.7733333333333</v>
+      </c>
+      <c r="N344" t="n">
+        <v>378.455</v>
+      </c>
+      <c r="O344" t="n">
+        <v>374.4566666666667</v>
+      </c>
+      <c r="P344" t="n">
+        <v>383.715</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>386.6285714285714</v>
+      </c>
+      <c r="R344" t="n">
+        <v>376.9246153846154</v>
+      </c>
+      <c r="S344" t="n">
+        <v>368.6785714285714</v>
+      </c>
+      <c r="T344" t="n">
+        <v>361.6833333333333</v>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>369.4233333333333</v>
+      </c>
+      <c r="C345" t="n">
+        <v>376.0007692307692</v>
+      </c>
+      <c r="D345" t="n">
+        <v>368.5433333333333</v>
+      </c>
+      <c r="E345" t="n">
+        <v>370.6954545454545</v>
+      </c>
+      <c r="F345" t="n">
+        <v>392.65</v>
+      </c>
+      <c r="G345" t="n">
+        <v>365.3133333333333</v>
+      </c>
+      <c r="H345" t="n">
+        <v>381.0054545454545</v>
+      </c>
+      <c r="I345" t="n">
+        <v>376.7407692307692</v>
+      </c>
+      <c r="J345" t="n">
+        <v>382.4907692307692</v>
+      </c>
+      <c r="K345" t="n">
+        <v>378.6833333333333</v>
+      </c>
+      <c r="L345" t="n">
+        <v>379.745</v>
+      </c>
+      <c r="M345" t="n">
+        <v>375.3366666666666</v>
+      </c>
+      <c r="N345" t="n">
+        <v>382.865</v>
+      </c>
+      <c r="O345" t="n">
+        <v>387.0033333333333</v>
+      </c>
+      <c r="P345" t="n">
+        <v>383.695</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>383.5742857142857</v>
+      </c>
+      <c r="R345" t="n">
+        <v>383.2807692307693</v>
+      </c>
+      <c r="S345" t="n">
+        <v>375.2742857142857</v>
+      </c>
+      <c r="T345" t="n">
+        <v>362.9666666666666</v>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>373.3233333333333</v>
+      </c>
+      <c r="C346" t="n">
+        <v>379.2392307692308</v>
+      </c>
+      <c r="D346" t="n">
+        <v>368.5833333333333</v>
+      </c>
+      <c r="E346" t="n">
+        <v>374.07</v>
+      </c>
+      <c r="F346" t="n">
+        <v>390.37</v>
+      </c>
+      <c r="G346" t="n">
+        <v>365.2733333333333</v>
+      </c>
+      <c r="H346" t="n">
+        <v>374.55</v>
+      </c>
+      <c r="I346" t="n">
+        <v>371.7892307692308</v>
+      </c>
+      <c r="J346" t="n">
+        <v>359.8592307692307</v>
+      </c>
+      <c r="K346" t="n">
+        <v>369.2133333333333</v>
+      </c>
+      <c r="L346" t="n">
+        <v>384.13</v>
+      </c>
+      <c r="M346" t="n">
+        <v>380.0566666666667</v>
+      </c>
+      <c r="N346" t="n">
+        <v>382.94</v>
+      </c>
+      <c r="O346" t="n">
+        <v>383.7733333333333</v>
+      </c>
+      <c r="P346" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>390.7157142857143</v>
+      </c>
+      <c r="R346" t="n">
+        <v>386.3292307692308</v>
+      </c>
+      <c r="S346" t="n">
+        <v>378.9757142857143</v>
+      </c>
+      <c r="T346" t="n">
+        <v>365.2766666666667</v>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22830,7 +23037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26358,6 +26565,36 @@
       </c>
       <c r="B352" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -26531,28 +26768,28 @@
         <v>0.0659</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02325609121626703</v>
+        <v>0.001651409469381082</v>
       </c>
       <c r="J2" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003520137555530489</v>
+        <v>1.765942044817947e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>6.921014368173154</v>
+        <v>6.965610569403268</v>
       </c>
       <c r="N2" t="n">
-        <v>81.21758515871993</v>
+        <v>82.65299883434531</v>
       </c>
       <c r="O2" t="n">
-        <v>9.012079957408275</v>
+        <v>9.091369469686363</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4838144034453</v>
+        <v>374.7006421513409</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26609,28 +26846,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1232741537242594</v>
+        <v>0.1070950090197915</v>
       </c>
       <c r="J3" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K3" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01293078554899663</v>
+        <v>0.009890873283633472</v>
       </c>
       <c r="M3" t="n">
-        <v>6.055156415052668</v>
+        <v>6.069012376449766</v>
       </c>
       <c r="N3" t="n">
-        <v>61.51020294797626</v>
+        <v>61.59513075574392</v>
       </c>
       <c r="O3" t="n">
-        <v>7.842844059904306</v>
+        <v>7.848256542426727</v>
       </c>
       <c r="P3" t="n">
-        <v>380.7736633301819</v>
+        <v>380.9381471012834</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26687,28 +26924,28 @@
         <v>0.0636</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001870961130745205</v>
+        <v>-0.01445644709221962</v>
       </c>
       <c r="J4" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K4" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L4" t="n">
-        <v>2.939253067046899e-06</v>
+        <v>0.0001764628955740477</v>
       </c>
       <c r="M4" t="n">
-        <v>6.185542391078894</v>
+        <v>6.207014196883853</v>
       </c>
       <c r="N4" t="n">
-        <v>64.08384866107743</v>
+        <v>64.45503648892769</v>
       </c>
       <c r="O4" t="n">
-        <v>8.005238825986233</v>
+        <v>8.028389408152028</v>
       </c>
       <c r="P4" t="n">
-        <v>373.0486501406029</v>
+        <v>373.2116562941071</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26765,28 +27002,28 @@
         <v>0.0601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04491366736373158</v>
+        <v>0.04137339301284522</v>
       </c>
       <c r="J5" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K5" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001395403474967138</v>
+        <v>0.001206232036404464</v>
       </c>
       <c r="M5" t="n">
-        <v>6.376040184684662</v>
+        <v>6.365203531342178</v>
       </c>
       <c r="N5" t="n">
-        <v>75.59279875241074</v>
+        <v>75.15070252469235</v>
       </c>
       <c r="O5" t="n">
-        <v>8.694411926772894</v>
+        <v>8.668950485767718</v>
       </c>
       <c r="P5" t="n">
-        <v>376.5324237018634</v>
+        <v>376.5682029905553</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26843,28 +27080,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1030142596992623</v>
+        <v>-0.1011658816832953</v>
       </c>
       <c r="J6" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K6" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006510820153994068</v>
+        <v>0.006417305754971792</v>
       </c>
       <c r="M6" t="n">
-        <v>7.272292078373304</v>
+        <v>7.219785270154124</v>
       </c>
       <c r="N6" t="n">
-        <v>84.45286375766699</v>
+        <v>83.67396296133512</v>
       </c>
       <c r="O6" t="n">
-        <v>9.189823924192835</v>
+        <v>9.147347318284965</v>
       </c>
       <c r="P6" t="n">
-        <v>394.483588689645</v>
+        <v>394.4648911056001</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26921,28 +27158,28 @@
         <v>0.0623</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2306988441325493</v>
+        <v>-0.2323129883089859</v>
       </c>
       <c r="J7" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K7" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03660016075213091</v>
+        <v>0.03774378356922303</v>
       </c>
       <c r="M7" t="n">
-        <v>6.355592944727622</v>
+        <v>6.340907355107198</v>
       </c>
       <c r="N7" t="n">
-        <v>73.18891283441327</v>
+        <v>72.71916440694031</v>
       </c>
       <c r="O7" t="n">
-        <v>8.55505188963885</v>
+        <v>8.527553248554963</v>
       </c>
       <c r="P7" t="n">
-        <v>375.4832781031167</v>
+        <v>375.4998231652816</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26999,28 +27236,28 @@
         <v>0.0571</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3403022781602978</v>
+        <v>-0.3490275393918575</v>
       </c>
       <c r="J8" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K8" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07069513146695039</v>
+        <v>0.07515237355369553</v>
       </c>
       <c r="M8" t="n">
-        <v>6.676414250331913</v>
+        <v>6.67191690696488</v>
       </c>
       <c r="N8" t="n">
-        <v>78.74160191141115</v>
+        <v>78.46505303886138</v>
       </c>
       <c r="O8" t="n">
-        <v>8.873646483346695</v>
+        <v>8.858050182679108</v>
       </c>
       <c r="P8" t="n">
-        <v>387.7307153663356</v>
+        <v>387.819889131844</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27077,28 +27314,28 @@
         <v>0.0701</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3400356145876541</v>
+        <v>-0.351560336326679</v>
       </c>
       <c r="J9" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K9" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08306061787762187</v>
+        <v>0.08967632727543573</v>
       </c>
       <c r="M9" t="n">
-        <v>6.30591041780908</v>
+        <v>6.30033303908665</v>
       </c>
       <c r="N9" t="n">
-        <v>66.13530983451463</v>
+        <v>65.82200613229304</v>
       </c>
       <c r="O9" t="n">
-        <v>8.132361885363601</v>
+        <v>8.11307624346604</v>
       </c>
       <c r="P9" t="n">
-        <v>388.0761009100065</v>
+        <v>388.1940327647958</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27155,28 +27392,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3068333320214212</v>
+        <v>-0.3193561287013471</v>
       </c>
       <c r="J10" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K10" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06005375205195829</v>
+        <v>0.06507569343509712</v>
       </c>
       <c r="M10" t="n">
-        <v>6.694080095944274</v>
+        <v>6.733942213886473</v>
       </c>
       <c r="N10" t="n">
-        <v>75.00974477789242</v>
+        <v>75.52059008859369</v>
       </c>
       <c r="O10" t="n">
-        <v>8.660816634584318</v>
+        <v>8.690258344180206</v>
       </c>
       <c r="P10" t="n">
-        <v>383.7003788672149</v>
+        <v>383.8293244365853</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27233,28 +27470,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1846528740560791</v>
+        <v>-0.1977377707365321</v>
       </c>
       <c r="J11" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K11" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02243426483170452</v>
+        <v>0.02589974289653363</v>
       </c>
       <c r="M11" t="n">
-        <v>6.870575321720636</v>
+        <v>6.884590756144487</v>
       </c>
       <c r="N11" t="n">
-        <v>76.15556461378392</v>
+        <v>76.32053422935522</v>
       </c>
       <c r="O11" t="n">
-        <v>8.726715568516251</v>
+        <v>8.736162442935411</v>
       </c>
       <c r="P11" t="n">
-        <v>381.057674579207</v>
+        <v>381.1913655661419</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27311,28 +27548,28 @@
         <v>0.0878</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2384395493950989</v>
+        <v>-0.2405703819149887</v>
       </c>
       <c r="J12" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K12" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04601939075495542</v>
+        <v>0.04763642191566697</v>
       </c>
       <c r="M12" t="n">
-        <v>6.13036820408453</v>
+        <v>6.105344760284546</v>
       </c>
       <c r="N12" t="n">
-        <v>60.05000204207641</v>
+        <v>59.64639071709584</v>
       </c>
       <c r="O12" t="n">
-        <v>7.749193638184325</v>
+        <v>7.723107581608315</v>
       </c>
       <c r="P12" t="n">
-        <v>386.5921983413592</v>
+        <v>386.6142368120502</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27389,28 +27626,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1754853680625772</v>
+        <v>-0.1778495462010896</v>
       </c>
       <c r="J13" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K13" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02364533847990902</v>
+        <v>0.02474264818236838</v>
       </c>
       <c r="M13" t="n">
-        <v>6.386958649701498</v>
+        <v>6.355290374375865</v>
       </c>
       <c r="N13" t="n">
-        <v>64.01720093775567</v>
+        <v>63.50618375724259</v>
       </c>
       <c r="O13" t="n">
-        <v>8.001074986384996</v>
+        <v>7.969076719246878</v>
       </c>
       <c r="P13" t="n">
-        <v>381.7947469473546</v>
+        <v>381.8194341941443</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27467,28 +27704,28 @@
         <v>0.0901</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1837786451605221</v>
+        <v>-0.1851586496265118</v>
       </c>
       <c r="J14" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K14" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02668338675239701</v>
+        <v>0.02762112562274432</v>
       </c>
       <c r="M14" t="n">
-        <v>6.137646350217065</v>
+        <v>6.094875170827341</v>
       </c>
       <c r="N14" t="n">
-        <v>62.05867282088909</v>
+        <v>61.50894702606507</v>
       </c>
       <c r="O14" t="n">
-        <v>7.877732720833393</v>
+        <v>7.842763991480623</v>
       </c>
       <c r="P14" t="n">
-        <v>386.8706571555534</v>
+        <v>386.8850912592195</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27545,28 +27782,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04675096418224966</v>
+        <v>-0.05057335213958524</v>
       </c>
       <c r="J15" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K15" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001377963521291936</v>
+        <v>0.001640851860055692</v>
       </c>
       <c r="M15" t="n">
-        <v>7.072152734059448</v>
+        <v>7.043507574934445</v>
       </c>
       <c r="N15" t="n">
-        <v>80.02095445680028</v>
+        <v>79.55822878231231</v>
       </c>
       <c r="O15" t="n">
-        <v>8.945443223049391</v>
+        <v>8.919541960342601</v>
       </c>
       <c r="P15" t="n">
-        <v>384.8788020991324</v>
+        <v>384.9186000073906</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27623,28 +27860,28 @@
         <v>0.0914</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05330374637698768</v>
+        <v>-0.05152760010669565</v>
       </c>
       <c r="J16" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K16" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002157590090389738</v>
+        <v>0.002059593012837646</v>
       </c>
       <c r="M16" t="n">
-        <v>6.110527121222973</v>
+        <v>6.059744454224357</v>
       </c>
       <c r="N16" t="n">
-        <v>66.95448768926944</v>
+        <v>66.31672266851724</v>
       </c>
       <c r="O16" t="n">
-        <v>8.182572192731907</v>
+        <v>8.143508007518458</v>
       </c>
       <c r="P16" t="n">
-        <v>384.0157699269093</v>
+        <v>383.9972892386889</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27701,28 +27938,28 @@
         <v>0.0806</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02932466708960262</v>
+        <v>-0.03366707829841652</v>
       </c>
       <c r="J17" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K17" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006286982583965095</v>
+        <v>0.0008447866711656093</v>
       </c>
       <c r="M17" t="n">
-        <v>6.205580772667413</v>
+        <v>6.177346118033435</v>
       </c>
       <c r="N17" t="n">
-        <v>70.36465057349946</v>
+        <v>69.81623472449159</v>
       </c>
       <c r="O17" t="n">
-        <v>8.388363998629259</v>
+        <v>8.355610972543635</v>
       </c>
       <c r="P17" t="n">
-        <v>389.9482232372161</v>
+        <v>389.9929924345035</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27779,28 +28016,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04469524409108339</v>
+        <v>0.03439822459540891</v>
       </c>
       <c r="J18" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K18" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001656523439122815</v>
+        <v>0.0009969750438395542</v>
       </c>
       <c r="M18" t="n">
-        <v>6.081677243089714</v>
+        <v>6.073283614938447</v>
       </c>
       <c r="N18" t="n">
-        <v>61.66629970255074</v>
+        <v>61.46809721423582</v>
       </c>
       <c r="O18" t="n">
-        <v>7.852789294419578</v>
+        <v>7.840159259494403</v>
       </c>
       <c r="P18" t="n">
-        <v>386.1871513715089</v>
+        <v>386.2931949457894</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27857,28 +28094,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03428905321648062</v>
+        <v>0.02402279212613279</v>
       </c>
       <c r="J19" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K19" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0008925281623164416</v>
+        <v>0.0004449863197222292</v>
       </c>
       <c r="M19" t="n">
-        <v>6.462487739615932</v>
+        <v>6.452791520905764</v>
       </c>
       <c r="N19" t="n">
-        <v>68.5403916973151</v>
+        <v>68.30716170332661</v>
       </c>
       <c r="O19" t="n">
-        <v>8.278912470688109</v>
+        <v>8.264814680519256</v>
       </c>
       <c r="P19" t="n">
-        <v>378.6407531373962</v>
+        <v>378.745657353184</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27935,28 +28172,28 @@
         <v>0.0822</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.06402899860003633</v>
+        <v>-0.07278853788388299</v>
       </c>
       <c r="J20" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K20" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00375853042370311</v>
+        <v>0.004940366259939322</v>
       </c>
       <c r="M20" t="n">
-        <v>5.867409652288277</v>
+        <v>5.854042378643187</v>
       </c>
       <c r="N20" t="n">
-        <v>55.61179966879769</v>
+        <v>55.26356367111288</v>
       </c>
       <c r="O20" t="n">
-        <v>7.457331940365648</v>
+        <v>7.433946708923389</v>
       </c>
       <c r="P20" t="n">
-        <v>369.301461378392</v>
+        <v>369.3923611596799</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27994,7 +28231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U343"/>
+  <dimension ref="A1:U346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62059,6 +62296,327 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-35.43335094532237,174.43041922866786</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-35.43402532558527,174.43009498391763</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-35.4346522893476,174.4296542637168</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-35.43540316895154,174.42953996459502</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-35.43609246138028,174.429344733067</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-35.4367439497873,174.42888586244416</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-35.43736027755716,174.42837540028518</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-35.43804685626365,174.42808080483988</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-35.43870499807672,174.42770741070203</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-35.43938106198577,174.4273843246084</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>-35.440078698242075,174.4272284792512</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-35.44078591771085,174.42705304950783</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>-35.44148116189951,174.42685775604636</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-35.442182522359,174.42667549354385</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>-35.442900507904206,174.42668018390404</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>-35.443599601638326,174.4266406500395</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>-35.44429691974282,174.42664981152666</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>-35.4449764852035,174.42690311120418</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>-35.445549286506996,174.42740478588792</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-35.43346155413447,174.43059607337457</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-35.4340396636512,174.43012865846705</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-35.43469155020953,174.4297772738167</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-35.43535970517385,174.4294150599718</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-35.436085136027664,174.42931787629553</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-35.43670975105668,174.42878188290632</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-35.43741117974711,174.42850814598881</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-35.43806036220736,174.42812398092119</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>-35.43875124471349,174.42787709878124</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-35.43943015450743,174.42756783634078</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-35.44009133394014,174.42728831764944</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-35.44079116909118,174.4270805479787</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>-35.4414897138331,174.42690519902723</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>-35.442196592326454,174.42681263446872</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>-35.442900492453916,174.42667996439192</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>-35.443600648042164,174.426607027652</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>-35.44428125226634,174.42671716459105</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>-35.44494490676931,174.4269646781091</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>-35.44554168633408,174.42741544505853</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-35.43348290222421,174.43063020545014</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-35.43405313758378,174.4301603035342</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-35.43469168122442,174.42977768430669</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-35.43537160850287,174.42944926727483</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-35.43607863726615,174.4292940500586</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-35.43670961659229,174.42878147407478</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-35.43738648843104,174.42844375446347</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-35.43804442494451,174.42807303235523</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-35.43868678156331,174.4276405709992</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-35.43940362889537,174.42746868134427</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-35.44010121048529,174.42733508974317</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-35.44080083871635,174.427131182363</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-35.44148985927399,174.42690600588074</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-35.442192970184585,174.42677732905653</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-35.442900110059334,174.42667453146683</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>-35.443598201361134,174.42668564239062</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>-35.44427373800789,174.42674946764245</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>-35.44492718535183,174.42699922862937</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>-35.44552800602055,174.42743463156052</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0075/nzd0075.xlsx
+++ b/data/nzd0075/nzd0075.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U346"/>
+  <dimension ref="A1:U349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23026,6 +23026,213 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>375.3966666666667</v>
+      </c>
+      <c r="C347" t="n">
+        <v>376.9461538461539</v>
+      </c>
+      <c r="D347" t="n">
+        <v>370.1566666666667</v>
+      </c>
+      <c r="E347" t="n">
+        <v>372.1245454545455</v>
+      </c>
+      <c r="F347" t="n">
+        <v>393.31</v>
+      </c>
+      <c r="G347" t="n">
+        <v>364.6466666666667</v>
+      </c>
+      <c r="H347" t="n">
+        <v>386.3045454545455</v>
+      </c>
+      <c r="I347" t="n">
+        <v>377.5961538461539</v>
+      </c>
+      <c r="J347" t="n">
+        <v>380.9661538461539</v>
+      </c>
+      <c r="K347" t="n">
+        <v>378.2266666666667</v>
+      </c>
+      <c r="L347" t="n">
+        <v>381.27</v>
+      </c>
+      <c r="M347" t="n">
+        <v>374.2033333333333</v>
+      </c>
+      <c r="N347" t="n">
+        <v>380.28</v>
+      </c>
+      <c r="O347" t="n">
+        <v>383.2166666666667</v>
+      </c>
+      <c r="P347" t="n">
+        <v>383.99</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>392.43</v>
+      </c>
+      <c r="R347" t="n">
+        <v>385.4661538461539</v>
+      </c>
+      <c r="S347" t="n">
+        <v>380.73</v>
+      </c>
+      <c r="T347" t="n">
+        <v>366.9333333333333</v>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>363.2633333333333</v>
+      </c>
+      <c r="C348" t="n">
+        <v>374.2123076923077</v>
+      </c>
+      <c r="D348" t="n">
+        <v>366.8033333333333</v>
+      </c>
+      <c r="E348" t="n">
+        <v>370.02</v>
+      </c>
+      <c r="F348" t="n">
+        <v>380.4</v>
+      </c>
+      <c r="G348" t="n">
+        <v>361.7833333333333</v>
+      </c>
+      <c r="H348" t="n">
+        <v>367.77</v>
+      </c>
+      <c r="I348" t="n">
+        <v>379.3323076923077</v>
+      </c>
+      <c r="J348" t="n">
+        <v>365.3723076923077</v>
+      </c>
+      <c r="K348" t="n">
+        <v>370.7133333333333</v>
+      </c>
+      <c r="L348" t="n">
+        <v>376.145</v>
+      </c>
+      <c r="M348" t="n">
+        <v>373.6066666666666</v>
+      </c>
+      <c r="N348" t="n">
+        <v>376.145</v>
+      </c>
+      <c r="O348" t="n">
+        <v>375.0033333333333</v>
+      </c>
+      <c r="P348" t="n">
+        <v>372.545</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>377.8914285714285</v>
+      </c>
+      <c r="R348" t="n">
+        <v>386.9823076923077</v>
+      </c>
+      <c r="S348" t="n">
+        <v>375.6114285714286</v>
+      </c>
+      <c r="T348" t="n">
+        <v>359.5466666666666</v>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>374.0333333333333</v>
+      </c>
+      <c r="C349" t="n">
+        <v>374.81</v>
+      </c>
+      <c r="D349" t="n">
+        <v>370.1533333333333</v>
+      </c>
+      <c r="E349" t="n">
+        <v>373.5454545454546</v>
+      </c>
+      <c r="F349" t="n">
+        <v>386.63</v>
+      </c>
+      <c r="G349" t="n">
+        <v>362.8133333333333</v>
+      </c>
+      <c r="H349" t="n">
+        <v>376.7854545454546</v>
+      </c>
+      <c r="I349" t="n">
+        <v>373.91</v>
+      </c>
+      <c r="J349" t="n">
+        <v>379.58</v>
+      </c>
+      <c r="K349" t="n">
+        <v>374.9033333333333</v>
+      </c>
+      <c r="L349" t="n">
+        <v>381.14</v>
+      </c>
+      <c r="M349" t="n">
+        <v>374.7966666666667</v>
+      </c>
+      <c r="N349" t="n">
+        <v>379.89</v>
+      </c>
+      <c r="O349" t="n">
+        <v>380.3633333333333</v>
+      </c>
+      <c r="P349" t="n">
+        <v>384.71</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>386.6614285714285</v>
+      </c>
+      <c r="R349" t="n">
+        <v>382.9</v>
+      </c>
+      <c r="S349" t="n">
+        <v>377.8914285714285</v>
+      </c>
+      <c r="T349" t="n">
+        <v>362.2266666666667</v>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23037,7 +23244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B355"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26595,6 +26802,36 @@
       </c>
       <c r="B355" t="n">
         <v>0.44</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -26768,28 +27005,28 @@
         <v>0.0659</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001651409469381082</v>
+        <v>-0.005693550419051598</v>
       </c>
       <c r="J2" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K2" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>1.765942044817947e-06</v>
+        <v>2.133241701718358e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.965610569403268</v>
+        <v>6.941389378964939</v>
       </c>
       <c r="N2" t="n">
-        <v>82.65299883434531</v>
+        <v>82.28408121376873</v>
       </c>
       <c r="O2" t="n">
-        <v>9.091369469686363</v>
+        <v>9.071057337144811</v>
       </c>
       <c r="P2" t="n">
-        <v>374.7006421513409</v>
+        <v>374.774774414208</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26846,28 +27083,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1070950090197915</v>
+        <v>0.09052930194172458</v>
       </c>
       <c r="J3" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009890873283633472</v>
+        <v>0.007158260602939559</v>
       </c>
       <c r="M3" t="n">
-        <v>6.069012376449766</v>
+        <v>6.087116779086862</v>
       </c>
       <c r="N3" t="n">
-        <v>61.59513075574392</v>
+        <v>61.67639409650808</v>
       </c>
       <c r="O3" t="n">
-        <v>7.848256542426727</v>
+        <v>7.853431994771973</v>
       </c>
       <c r="P3" t="n">
-        <v>380.9381471012834</v>
+        <v>381.1074417677389</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26924,28 +27161,28 @@
         <v>0.0636</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01445644709221962</v>
+        <v>-0.02158104711688338</v>
       </c>
       <c r="J4" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K4" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001764628955740477</v>
+        <v>0.0004004220894521238</v>
       </c>
       <c r="M4" t="n">
-        <v>6.207014196883853</v>
+        <v>6.182931426414187</v>
       </c>
       <c r="N4" t="n">
-        <v>64.45503648892769</v>
+        <v>63.99827820145166</v>
       </c>
       <c r="O4" t="n">
-        <v>8.028389408152028</v>
+        <v>7.999892386866942</v>
       </c>
       <c r="P4" t="n">
-        <v>373.2116562941071</v>
+        <v>373.283164801325</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27002,28 +27239,28 @@
         <v>0.0601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04137339301284522</v>
+        <v>0.03015474679545232</v>
       </c>
       <c r="J5" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K5" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001206232036404464</v>
+        <v>0.0006523320238991381</v>
       </c>
       <c r="M5" t="n">
-        <v>6.365203531342178</v>
+        <v>6.357314872591568</v>
       </c>
       <c r="N5" t="n">
-        <v>75.15070252469235</v>
+        <v>74.75585053083798</v>
       </c>
       <c r="O5" t="n">
-        <v>8.668950485767718</v>
+        <v>8.64614657120951</v>
       </c>
       <c r="P5" t="n">
-        <v>376.5682029905553</v>
+        <v>376.681857516526</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27080,28 +27317,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1011658816832953</v>
+        <v>-0.1111022848086138</v>
       </c>
       <c r="J6" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K6" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006417305754971792</v>
+        <v>0.007850039078306836</v>
       </c>
       <c r="M6" t="n">
-        <v>7.219785270154124</v>
+        <v>7.207512826498635</v>
       </c>
       <c r="N6" t="n">
-        <v>83.67396296133512</v>
+        <v>83.37306785502878</v>
       </c>
       <c r="O6" t="n">
-        <v>9.147347318284965</v>
+        <v>9.130885381770423</v>
       </c>
       <c r="P6" t="n">
-        <v>394.4648911056001</v>
+        <v>394.5661554711804</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27158,28 +27395,28 @@
         <v>0.0623</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2323129883089859</v>
+        <v>-0.2443811271151405</v>
       </c>
       <c r="J7" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K7" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03774378356922303</v>
+        <v>0.04221539055838075</v>
       </c>
       <c r="M7" t="n">
-        <v>6.340907355107198</v>
+        <v>6.340594011019324</v>
       </c>
       <c r="N7" t="n">
-        <v>72.71916440694031</v>
+        <v>72.42090919905692</v>
       </c>
       <c r="O7" t="n">
-        <v>8.527553248554963</v>
+        <v>8.510047543877585</v>
       </c>
       <c r="P7" t="n">
-        <v>375.4998231652816</v>
+        <v>375.6234374779146</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27236,28 +27473,28 @@
         <v>0.0571</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3490275393918575</v>
+        <v>-0.3524646161769408</v>
       </c>
       <c r="J8" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K8" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07515237355369553</v>
+        <v>0.07749221213258473</v>
       </c>
       <c r="M8" t="n">
-        <v>6.67191690696488</v>
+        <v>6.674426632965462</v>
       </c>
       <c r="N8" t="n">
-        <v>78.46505303886138</v>
+        <v>78.29665550294052</v>
       </c>
       <c r="O8" t="n">
-        <v>8.858050182679108</v>
+        <v>8.848539738450663</v>
       </c>
       <c r="P8" t="n">
-        <v>387.819889131844</v>
+        <v>387.8552515274193</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27314,28 +27551,28 @@
         <v>0.0701</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.351560336326679</v>
+        <v>-0.3558406329302088</v>
       </c>
       <c r="J9" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K9" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08967632727543573</v>
+        <v>0.09340292558119423</v>
       </c>
       <c r="M9" t="n">
-        <v>6.30033303908665</v>
+        <v>6.260890873023088</v>
       </c>
       <c r="N9" t="n">
-        <v>65.82200613229304</v>
+        <v>65.26023874057763</v>
       </c>
       <c r="O9" t="n">
-        <v>8.11307624346604</v>
+        <v>8.078380947973278</v>
       </c>
       <c r="P9" t="n">
-        <v>388.1940327647958</v>
+        <v>388.2380483887303</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27392,28 +27629,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3193561287013471</v>
+        <v>-0.3198178486110679</v>
       </c>
       <c r="J10" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K10" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06507569343509712</v>
+        <v>0.06619174147511164</v>
       </c>
       <c r="M10" t="n">
-        <v>6.733942213886473</v>
+        <v>6.732254527282216</v>
       </c>
       <c r="N10" t="n">
-        <v>75.52059008859369</v>
+        <v>75.27553078736601</v>
       </c>
       <c r="O10" t="n">
-        <v>8.690258344180206</v>
+        <v>8.676147231770909</v>
       </c>
       <c r="P10" t="n">
-        <v>383.8293244365853</v>
+        <v>383.8341044027933</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27470,28 +27707,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1977377707365321</v>
+        <v>-0.2005475558120896</v>
       </c>
       <c r="J11" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K11" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02589974289653363</v>
+        <v>0.02714625865983944</v>
       </c>
       <c r="M11" t="n">
-        <v>6.884590756144487</v>
+        <v>6.847155894487931</v>
       </c>
       <c r="N11" t="n">
-        <v>76.32053422935522</v>
+        <v>75.71059686451061</v>
       </c>
       <c r="O11" t="n">
-        <v>8.736162442935411</v>
+        <v>8.701183647326989</v>
       </c>
       <c r="P11" t="n">
-        <v>381.1913655661419</v>
+        <v>381.2202306087963</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27548,28 +27785,28 @@
         <v>0.0878</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2405703819149887</v>
+        <v>-0.2422151835480799</v>
       </c>
       <c r="J12" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K12" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04763642191566697</v>
+        <v>0.04917852330882888</v>
       </c>
       <c r="M12" t="n">
-        <v>6.105344760284546</v>
+        <v>6.065788379857227</v>
       </c>
       <c r="N12" t="n">
-        <v>59.64639071709584</v>
+        <v>59.14085019972634</v>
       </c>
       <c r="O12" t="n">
-        <v>7.723107581608315</v>
+        <v>7.690308849436825</v>
       </c>
       <c r="P12" t="n">
-        <v>386.6142368120502</v>
+        <v>386.6314010614191</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27626,28 +27863,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1778495462010896</v>
+        <v>-0.183666233943552</v>
       </c>
       <c r="J13" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K13" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02474264818236838</v>
+        <v>0.02684951274051273</v>
       </c>
       <c r="M13" t="n">
-        <v>6.355290374375865</v>
+        <v>6.322703262439603</v>
       </c>
       <c r="N13" t="n">
-        <v>63.50618375724259</v>
+        <v>62.99011663590736</v>
       </c>
       <c r="O13" t="n">
-        <v>7.969076719246878</v>
+        <v>7.936631315357125</v>
       </c>
       <c r="P13" t="n">
-        <v>381.8194341941443</v>
+        <v>381.8806226002633</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27704,28 +27941,28 @@
         <v>0.0901</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1851586496265118</v>
+        <v>-0.1915890158520292</v>
       </c>
       <c r="J14" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K14" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02762112562274432</v>
+        <v>0.03005466955026181</v>
       </c>
       <c r="M14" t="n">
-        <v>6.094875170827341</v>
+        <v>6.065367459929022</v>
       </c>
       <c r="N14" t="n">
-        <v>61.50894702606507</v>
+        <v>61.05730620414799</v>
       </c>
       <c r="O14" t="n">
-        <v>7.842763991480623</v>
+        <v>7.813917468475591</v>
       </c>
       <c r="P14" t="n">
-        <v>386.8850912592195</v>
+        <v>386.9528390656971</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27782,28 +28019,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.05057335213958524</v>
+        <v>-0.05853559820720992</v>
       </c>
       <c r="J15" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K15" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001640851860055692</v>
+        <v>0.002236236478276532</v>
       </c>
       <c r="M15" t="n">
-        <v>7.043507574934445</v>
+        <v>7.01200205074923</v>
       </c>
       <c r="N15" t="n">
-        <v>79.55822878231231</v>
+        <v>79.06452338655907</v>
       </c>
       <c r="O15" t="n">
-        <v>8.919541960342601</v>
+        <v>8.891823400549466</v>
       </c>
       <c r="P15" t="n">
-        <v>384.9186000073906</v>
+        <v>385.0020435976174</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27860,28 +28097,28 @@
         <v>0.0914</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05152760010669565</v>
+        <v>-0.05587349412587465</v>
       </c>
       <c r="J16" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K16" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002059593012837646</v>
+        <v>0.002458892723673278</v>
       </c>
       <c r="M16" t="n">
-        <v>6.059744454224357</v>
+        <v>6.046361962391141</v>
       </c>
       <c r="N16" t="n">
-        <v>66.31672266851724</v>
+        <v>66.02653511602283</v>
       </c>
       <c r="O16" t="n">
-        <v>8.143508007518458</v>
+        <v>8.125671364018043</v>
       </c>
       <c r="P16" t="n">
-        <v>383.9972892386889</v>
+        <v>384.0427201819974</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27938,28 +28175,28 @@
         <v>0.0806</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.03366707829841652</v>
+        <v>-0.04032381748548123</v>
       </c>
       <c r="J17" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K17" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0008447866711656093</v>
+        <v>0.001228935419126165</v>
       </c>
       <c r="M17" t="n">
-        <v>6.177346118033435</v>
+        <v>6.172628968593378</v>
       </c>
       <c r="N17" t="n">
-        <v>69.81623472449159</v>
+        <v>69.60204476974002</v>
       </c>
       <c r="O17" t="n">
-        <v>8.355610972543635</v>
+        <v>8.342783993951899</v>
       </c>
       <c r="P17" t="n">
-        <v>389.9929924345035</v>
+        <v>390.0620491887419</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28016,28 +28253,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03439822459540891</v>
+        <v>0.03034829577398195</v>
       </c>
       <c r="J18" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K18" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0009969750438395542</v>
+        <v>0.0007920674221576496</v>
       </c>
       <c r="M18" t="n">
-        <v>6.073283614938447</v>
+        <v>6.034500689285609</v>
       </c>
       <c r="N18" t="n">
-        <v>61.46809721423582</v>
+        <v>60.94597641470179</v>
       </c>
       <c r="O18" t="n">
-        <v>7.840159259494403</v>
+        <v>7.806790404173907</v>
       </c>
       <c r="P18" t="n">
-        <v>386.2931949457894</v>
+        <v>386.3351406704469</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28094,28 +28331,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02402279212613279</v>
+        <v>0.02152631249258439</v>
       </c>
       <c r="J19" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K19" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004449863197222292</v>
+        <v>0.0003646310964198207</v>
       </c>
       <c r="M19" t="n">
-        <v>6.452791520905764</v>
+        <v>6.412514367214396</v>
       </c>
       <c r="N19" t="n">
-        <v>68.30716170332661</v>
+        <v>67.70807805982567</v>
       </c>
       <c r="O19" t="n">
-        <v>8.264814680519256</v>
+        <v>8.228491846008335</v>
       </c>
       <c r="P19" t="n">
-        <v>378.745657353184</v>
+        <v>378.7713263126987</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28172,28 +28409,28 @@
         <v>0.0822</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.07278853788388299</v>
+        <v>-0.08189674513893909</v>
       </c>
       <c r="J20" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K20" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004940366259939322</v>
+        <v>0.006346101493093559</v>
       </c>
       <c r="M20" t="n">
-        <v>5.854042378643187</v>
+        <v>5.843973126146327</v>
       </c>
       <c r="N20" t="n">
-        <v>55.26356367111288</v>
+        <v>55.01426099051619</v>
       </c>
       <c r="O20" t="n">
-        <v>7.433946708923389</v>
+        <v>7.417159900562761</v>
       </c>
       <c r="P20" t="n">
-        <v>369.3923611596799</v>
+        <v>369.4873777394781</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28231,7 +28468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U346"/>
+  <dimension ref="A1:U349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62617,6 +62854,327 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-35.43349425137548,174.4306483508856</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-35.43404359701625,174.43013789642026</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-35.43469683447591,174.42979383024613</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-35.435364746132294,174.42942954646855</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-35.4360870172472,174.4293247733648</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-35.436707509983314,174.42877506904708</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-35.437431448088695,174.42856100310829</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-35.438063115387706,174.4281327823532</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-35.43874690204918,174.427861164639</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-35.43942887537915,174.42756305484178</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-35.440094768772646,174.42730458388377</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-35.44078884728531,174.42706839000678</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-35.441484700967294,174.42687738947834</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>-35.44219234593411,174.42677124442955</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>-35.44290072034552,174.4266832021958</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>-35.44359761403261,174.42670451370117</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>-35.44427586543696,174.42674032204036</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>-35.44491878631309,174.42701560378373</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>-35.445518194884805,174.4274483915731</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-35.433427835079726,174.43054216223527</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-35.43403222258025,174.43011118227642</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-35.43468585106012,174.42975941750473</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-35.43535732258282,174.42940821298316</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-35.4360502193798,174.42918986256578</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-35.436697884568716,174.42874580352574</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-35.43736055573061,174.42837612572063</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-35.4380687034505,174.42815064641263</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-35.438702484927546,174.4276981894904</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>-35.43940783042342,174.427484386989</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>-35.440083225474254,174.42724991867527</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>-35.440787624922315,174.42706198919242</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>-35.4414766823077,174.4268329049649</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>-35.44218313540016,174.4266814688649</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>-35.44289187885977,174.42655758639276</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>-35.443602594974486,174.42654446924962</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>-35.444272128214834,174.42675638797743</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>-35.444943292622845,174.4269678251274</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>-35.44556194029938,174.42738703905653</t>
+        </is>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-35.43348678867022,174.43063641924016</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-35.43403470933845,174.43011702270624</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-35.434696823558006,174.42979379603864</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-35.435369758228525,174.42944395002905</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-35.4360679770066,174.42925496667792</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-35.43670134702952,174.428756330936</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-35.437395038772486,174.42846605255247</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-35.43805125095833,174.42809485388403</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-35.43874295377231,174.42784667759483</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-35.439419566680705,174.42752825809816</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-35.44009447596733,174.4273031972539</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-35.44079006281912,174.4270747550626</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>-35.441483944673635,174.4268731938407</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>-35.44218914617832,174.42674005616314</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>-35.442901276555176,174.4266911046324</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>-35.44359959038136,174.42664101173966</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>-35.444282190837015,174.42671312976586</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>-35.44493237661329,174.4269891075021</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>-35.445546068771556,174.42740929873182</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0075/nzd0075.xlsx
+++ b/data/nzd0075/nzd0075.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U349"/>
+  <dimension ref="A1:U350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23233,6 +23233,75 @@
         </is>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>374.38</v>
+      </c>
+      <c r="C350" t="n">
+        <v>388.4230769230769</v>
+      </c>
+      <c r="D350" t="n">
+        <v>376.59</v>
+      </c>
+      <c r="E350" t="n">
+        <v>378.2390909090909</v>
+      </c>
+      <c r="F350" t="n">
+        <v>389.75</v>
+      </c>
+      <c r="G350" t="n">
+        <v>371.88</v>
+      </c>
+      <c r="H350" t="n">
+        <v>384.3490909090909</v>
+      </c>
+      <c r="I350" t="n">
+        <v>385.4530769230769</v>
+      </c>
+      <c r="J350" t="n">
+        <v>379.7830769230769</v>
+      </c>
+      <c r="K350" t="n">
+        <v>376.38</v>
+      </c>
+      <c r="L350" t="n">
+        <v>385.22</v>
+      </c>
+      <c r="M350" t="n">
+        <v>380.1</v>
+      </c>
+      <c r="N350" t="n">
+        <v>379.22</v>
+      </c>
+      <c r="O350" t="n">
+        <v>380.16</v>
+      </c>
+      <c r="P350" t="n">
+        <v>387.29</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>391.2242857142857</v>
+      </c>
+      <c r="R350" t="n">
+        <v>381.6130769230769</v>
+      </c>
+      <c r="S350" t="n">
+        <v>379.8942857142857</v>
+      </c>
+      <c r="T350" t="n">
+        <v>359.88</v>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23244,7 +23313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26832,6 +26901,16 @@
       </c>
       <c r="B358" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -27005,28 +27084,28 @@
         <v>0.0659</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.005693550419051598</v>
+        <v>-0.005850336190957936</v>
       </c>
       <c r="J2" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>2.133241701718358e-05</v>
+        <v>2.268217679757267e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.941389378964939</v>
+        <v>6.92028833534221</v>
       </c>
       <c r="N2" t="n">
-        <v>82.28408121376873</v>
+        <v>82.0246995252278</v>
       </c>
       <c r="O2" t="n">
-        <v>9.071057337144811</v>
+        <v>9.056748838585941</v>
       </c>
       <c r="P2" t="n">
-        <v>374.774774414208</v>
+        <v>374.7763644192963</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27083,28 +27162,28 @@
         <v>0.0702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09052930194172458</v>
+        <v>0.09378801396344152</v>
       </c>
       <c r="J3" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007158260602939559</v>
+        <v>0.007722918460818184</v>
       </c>
       <c r="M3" t="n">
-        <v>6.087116779086862</v>
+        <v>6.084191139463912</v>
       </c>
       <c r="N3" t="n">
-        <v>61.67639409650808</v>
+        <v>61.55141400328663</v>
       </c>
       <c r="O3" t="n">
-        <v>7.853431994771973</v>
+        <v>7.845470922977577</v>
       </c>
       <c r="P3" t="n">
-        <v>381.1074417677389</v>
+        <v>381.0739724883613</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27161,28 +27240,28 @@
         <v>0.0636</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02158104711688338</v>
+        <v>-0.01916196968006829</v>
       </c>
       <c r="J4" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K4" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004004220894521238</v>
+        <v>0.0003176532500765994</v>
       </c>
       <c r="M4" t="n">
-        <v>6.182931426414187</v>
+        <v>6.17574156083888</v>
       </c>
       <c r="N4" t="n">
-        <v>63.99827820145166</v>
+        <v>63.84265762652469</v>
       </c>
       <c r="O4" t="n">
-        <v>7.999892386866942</v>
+        <v>7.99016005011944</v>
       </c>
       <c r="P4" t="n">
-        <v>373.283164801325</v>
+        <v>373.2587620441423</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27239,28 +27318,28 @@
         <v>0.0601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03015474679545232</v>
+        <v>0.03065663677962867</v>
       </c>
       <c r="J5" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K5" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006523320238991381</v>
+        <v>0.0006790570501518101</v>
       </c>
       <c r="M5" t="n">
-        <v>6.357314872591568</v>
+        <v>6.339490878521747</v>
       </c>
       <c r="N5" t="n">
-        <v>74.75585053083798</v>
+        <v>74.51889480613694</v>
       </c>
       <c r="O5" t="n">
-        <v>8.64614657120951</v>
+        <v>8.632432728155891</v>
       </c>
       <c r="P5" t="n">
-        <v>376.681857516526</v>
+        <v>376.6767479500274</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27317,28 +27396,28 @@
         <v>0.0411</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1111022848086138</v>
+        <v>-0.1123579485888189</v>
       </c>
       <c r="J6" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K6" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007850039078306836</v>
+        <v>0.00808331477027957</v>
       </c>
       <c r="M6" t="n">
-        <v>7.207512826498635</v>
+        <v>7.19038653339635</v>
       </c>
       <c r="N6" t="n">
-        <v>83.37306785502878</v>
+        <v>83.11672219998266</v>
       </c>
       <c r="O6" t="n">
-        <v>9.130885381770423</v>
+        <v>9.116837291516322</v>
       </c>
       <c r="P6" t="n">
-        <v>394.5661554711804</v>
+        <v>394.5790087108126</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27395,28 +27474,28 @@
         <v>0.0623</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2443811271151405</v>
+        <v>-0.2427276474185023</v>
       </c>
       <c r="J7" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K7" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04221539055838075</v>
+        <v>0.04193231689548216</v>
       </c>
       <c r="M7" t="n">
-        <v>6.340594011019324</v>
+        <v>6.328942877762056</v>
       </c>
       <c r="N7" t="n">
-        <v>72.42090919905692</v>
+        <v>72.21593265012329</v>
       </c>
       <c r="O7" t="n">
-        <v>8.510047543877585</v>
+        <v>8.497995801959618</v>
       </c>
       <c r="P7" t="n">
-        <v>375.6234374779146</v>
+        <v>375.6064192658346</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27473,28 +27552,28 @@
         <v>0.0571</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3524646161769408</v>
+        <v>-0.3488764952744313</v>
       </c>
       <c r="J8" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K8" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07749221213258473</v>
+        <v>0.07643815250447217</v>
       </c>
       <c r="M8" t="n">
-        <v>6.674426632965462</v>
+        <v>6.670111074497963</v>
       </c>
       <c r="N8" t="n">
-        <v>78.29665550294052</v>
+        <v>78.15316207910956</v>
       </c>
       <c r="O8" t="n">
-        <v>8.848539738450663</v>
+        <v>8.840427709059645</v>
       </c>
       <c r="P8" t="n">
-        <v>387.8552515274193</v>
+        <v>387.8182201339691</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27551,28 +27630,28 @@
         <v>0.0701</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3558406329302088</v>
+        <v>-0.3514866757510535</v>
       </c>
       <c r="J9" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K9" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09340292558119423</v>
+        <v>0.09176936133188263</v>
       </c>
       <c r="M9" t="n">
-        <v>6.260890873023088</v>
+        <v>6.260974466024163</v>
       </c>
       <c r="N9" t="n">
-        <v>65.26023874057763</v>
+        <v>65.18213389693723</v>
       </c>
       <c r="O9" t="n">
-        <v>8.078380947973278</v>
+        <v>8.073545311505796</v>
       </c>
       <c r="P9" t="n">
-        <v>388.2380483887303</v>
+        <v>388.1930828364687</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27629,28 +27708,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3198178486110679</v>
+        <v>-0.3170153920328408</v>
       </c>
       <c r="J10" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K10" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06619174147511164</v>
+        <v>0.06550184742781839</v>
       </c>
       <c r="M10" t="n">
-        <v>6.732254527282216</v>
+        <v>6.723777721873096</v>
       </c>
       <c r="N10" t="n">
-        <v>75.27553078736601</v>
+        <v>75.09539130162725</v>
       </c>
       <c r="O10" t="n">
-        <v>8.676147231770909</v>
+        <v>8.665759707124774</v>
       </c>
       <c r="P10" t="n">
-        <v>383.8341044027933</v>
+        <v>383.8050091472599</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27707,28 +27786,28 @@
         <v>0.063</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2005475558120896</v>
+        <v>-0.2002971556553077</v>
       </c>
       <c r="J11" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K11" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02714625865983944</v>
+        <v>0.02726829499283012</v>
       </c>
       <c r="M11" t="n">
-        <v>6.847155894487931</v>
+        <v>6.826940896789869</v>
       </c>
       <c r="N11" t="n">
-        <v>75.71059686451061</v>
+        <v>75.47446428876012</v>
       </c>
       <c r="O11" t="n">
-        <v>8.701183647326989</v>
+        <v>8.687604059161544</v>
       </c>
       <c r="P11" t="n">
-        <v>381.2202306087963</v>
+        <v>381.2176479858188</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27785,28 +27864,28 @@
         <v>0.0878</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2422151835480799</v>
+        <v>-0.2390603187934911</v>
       </c>
       <c r="J12" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K12" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04917852330882888</v>
+        <v>0.04822530180250917</v>
       </c>
       <c r="M12" t="n">
-        <v>6.065788379857227</v>
+        <v>6.062432436836628</v>
       </c>
       <c r="N12" t="n">
-        <v>59.14085019972634</v>
+        <v>59.02932229017942</v>
       </c>
       <c r="O12" t="n">
-        <v>7.690308849436825</v>
+        <v>7.683054229287948</v>
       </c>
       <c r="P12" t="n">
-        <v>386.6314010614191</v>
+        <v>386.5983214934523</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27863,28 +27942,28 @@
         <v>0.07920000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.183666233943552</v>
+        <v>-0.181723101578202</v>
       </c>
       <c r="J13" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K13" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02684951274051273</v>
+        <v>0.02646536670561983</v>
       </c>
       <c r="M13" t="n">
-        <v>6.322703262439603</v>
+        <v>6.312458770430688</v>
       </c>
       <c r="N13" t="n">
-        <v>62.99011663590736</v>
+        <v>62.82017483551058</v>
       </c>
       <c r="O13" t="n">
-        <v>7.936631315357125</v>
+        <v>7.92591791753552</v>
       </c>
       <c r="P13" t="n">
-        <v>381.8806226002633</v>
+        <v>381.8600831424777</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27941,28 +28020,28 @@
         <v>0.0901</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1915890158520292</v>
+        <v>-0.1933644317969397</v>
       </c>
       <c r="J14" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K14" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03005466955026181</v>
+        <v>0.03079135459416149</v>
       </c>
       <c r="M14" t="n">
-        <v>6.065367459929022</v>
+        <v>6.05418634702849</v>
       </c>
       <c r="N14" t="n">
-        <v>61.05730620414799</v>
+        <v>60.88759298574856</v>
       </c>
       <c r="O14" t="n">
-        <v>7.813917468475591</v>
+        <v>7.803050236013386</v>
       </c>
       <c r="P14" t="n">
-        <v>386.9528390656971</v>
+        <v>386.9716330656439</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28019,28 +28098,28 @@
         <v>0.0679</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.05853559820720992</v>
+        <v>-0.06069309649462566</v>
       </c>
       <c r="J15" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K15" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002236236478276532</v>
+        <v>0.002419480675325714</v>
       </c>
       <c r="M15" t="n">
-        <v>7.01200205074923</v>
+        <v>6.999508068731915</v>
       </c>
       <c r="N15" t="n">
-        <v>79.06452338655907</v>
+        <v>78.84877180389179</v>
       </c>
       <c r="O15" t="n">
-        <v>8.891823400549466</v>
+        <v>8.879683091411078</v>
       </c>
       <c r="P15" t="n">
-        <v>385.0020435976174</v>
+        <v>385.0247566109079</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28097,28 +28176,28 @@
         <v>0.0914</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05587349412587465</v>
+        <v>-0.05283694342017534</v>
       </c>
       <c r="J16" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K16" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002458892723673278</v>
+        <v>0.002212358474463105</v>
       </c>
       <c r="M16" t="n">
-        <v>6.046361962391141</v>
+        <v>6.040860749564307</v>
       </c>
       <c r="N16" t="n">
-        <v>66.02653511602283</v>
+        <v>65.88645562270092</v>
       </c>
       <c r="O16" t="n">
-        <v>8.125671364018043</v>
+        <v>8.117047223140993</v>
       </c>
       <c r="P16" t="n">
-        <v>384.0427201819974</v>
+        <v>384.0108197679971</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28175,28 +28254,28 @@
         <v>0.0806</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.04032381748548123</v>
+        <v>-0.03890510591185688</v>
       </c>
       <c r="J17" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K17" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001228935419126165</v>
+        <v>0.001151747992999108</v>
       </c>
       <c r="M17" t="n">
-        <v>6.172628968593378</v>
+        <v>6.159995052360159</v>
       </c>
       <c r="N17" t="n">
-        <v>69.60204476974002</v>
+        <v>69.39713117860252</v>
       </c>
       <c r="O17" t="n">
-        <v>8.342783993951899</v>
+        <v>8.330494053692286</v>
       </c>
       <c r="P17" t="n">
-        <v>390.0620491887419</v>
+        <v>390.047267928401</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28253,28 +28332,28 @@
         <v>0.07240000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03034829577398195</v>
+        <v>0.02675590815069307</v>
       </c>
       <c r="J18" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K18" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0007920674221576496</v>
+        <v>0.0006191463260927232</v>
       </c>
       <c r="M18" t="n">
-        <v>6.034500689285609</v>
+        <v>6.032318175860248</v>
       </c>
       <c r="N18" t="n">
-        <v>60.94597641470179</v>
+        <v>60.84768917324535</v>
       </c>
       <c r="O18" t="n">
-        <v>7.806790404173907</v>
+        <v>7.800492880148366</v>
       </c>
       <c r="P18" t="n">
-        <v>386.3351406704469</v>
+        <v>386.3725111249973</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28331,28 +28410,28 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02152631249258439</v>
+        <v>0.02188780595747614</v>
       </c>
       <c r="J19" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K19" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003646310964198207</v>
+        <v>0.0003796087733516362</v>
       </c>
       <c r="M19" t="n">
-        <v>6.412514367214396</v>
+        <v>6.393714596454115</v>
       </c>
       <c r="N19" t="n">
-        <v>67.70807805982567</v>
+        <v>67.49275680001466</v>
       </c>
       <c r="O19" t="n">
-        <v>8.228491846008335</v>
+        <v>8.215397543638083</v>
       </c>
       <c r="P19" t="n">
-        <v>378.7713263126987</v>
+        <v>378.7675938637148</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -28409,28 +28488,28 @@
         <v>0.0822</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.08189674513893909</v>
+        <v>-0.08682431679914142</v>
       </c>
       <c r="J20" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K20" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006346101493093559</v>
+        <v>0.00715400166566027</v>
       </c>
       <c r="M20" t="n">
-        <v>5.843973126146327</v>
+        <v>5.850677632816677</v>
       </c>
       <c r="N20" t="n">
-        <v>55.01426099051619</v>
+        <v>55.01508995791593</v>
       </c>
       <c r="O20" t="n">
-        <v>7.417159900562761</v>
+        <v>7.417215782078605</v>
       </c>
       <c r="P20" t="n">
-        <v>369.4873777394781</v>
+        <v>369.5390152163785</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -28468,7 +28547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U349"/>
+  <dimension ref="A1:U350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63175,6 +63254,113 @@
         </is>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-35.43348868627754,174.43063945320358</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-35.43409134781766,174.4302500447915</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-35.43471790601087,174.4298598507396</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-35.43538631448776,174.42949152878936</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-35.43607687005822,174.4292875709948</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-35.436731825608256,174.42884899943965</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-35.437423968729185,174.42854149793047</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-35.438088404011786,174.42821362574975</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-35.43874353221031,174.42784880000298</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-35.43942370284386,174.42754371943866</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-35.44010366554156,174.42734671610336</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-35.44080092749106,174.42713164722673</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-35.441482645399546,174.4268659859505</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-35.442188918158024,174.4267378336349</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>-35.44290326963548,174.42671942169764</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>-35.44359802712064,174.42669124087945</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>-35.444285363015304,174.4266994928711</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>-35.444922787484096,174.42700780291665</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>-35.44555996622896,174.42738980767336</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0075/nzd0075.xlsx
+++ b/data/nzd0075/nzd0075.xlsx
@@ -27075,13 +27075,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0564</v>
+        <v>0.0516</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0659</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="I2" t="n">
         <v>-0.005884988138919775</v>
@@ -27153,13 +27153,13 @@
         <v>0.05459845404228887</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0603</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0702</v>
+        <v>0.1673</v>
       </c>
       <c r="I3" t="n">
         <v>0.09380726697992538</v>
@@ -27231,13 +27231,13 @@
         <v>0.1103082394592846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0547</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0636</v>
+        <v>0.1054</v>
       </c>
       <c r="I4" t="n">
         <v>-0.01918751520682202</v>
@@ -27309,13 +27309,13 @@
         <v>0.1663401326267553</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0526</v>
+        <v>0.0688</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0601</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>0.03064304150399167</v>
@@ -27387,13 +27387,13 @@
         <v>0.2216436430730707</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0396</v>
+        <v>0.0465</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0411</v>
+        <v>0.0613</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1123579485888189</v>
@@ -27465,13 +27465,13 @@
         <v>0.2777368316169957</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.055</v>
+        <v>0.0585</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0623</v>
+        <v>0.079</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2427464669259717</v>
@@ -27543,13 +27543,13 @@
         <v>0.3337985864652597</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0496</v>
+        <v>0.0587</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0571</v>
+        <v>0.0708</v>
       </c>
       <c r="I8" t="n">
         <v>-0.3488849011340883</v>
@@ -27621,13 +27621,13 @@
         <v>0.3899160867942598</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0593</v>
+        <v>0.0697</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0701</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>-0.3514652745083837</v>
@@ -27699,13 +27699,13 @@
         <v>0.4455986422498732</v>
       </c>
       <c r="F10" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0604</v>
+        <v>0.0699</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07439999999999999</v>
+        <v>0.0985</v>
       </c>
       <c r="I10" t="n">
         <v>-0.3169922313644443</v>
@@ -27777,13 +27777,13 @@
         <v>0.5012676516654927</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0533</v>
+        <v>0.0814</v>
       </c>
       <c r="H11" t="n">
-        <v>0.063</v>
+        <v>0.1069</v>
       </c>
       <c r="I11" t="n">
         <v>-0.2003129108790635</v>
@@ -27855,13 +27855,13 @@
         <v>0.5557419481118708</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0832</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0878</v>
+        <v>0.1059</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2390354484649873</v>
@@ -27933,13 +27933,13 @@
         <v>0.6113902551583049</v>
       </c>
       <c r="F13" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0674</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.1002</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1817046848053074</v>
@@ -28011,13 +28011,13 @@
         <v>0.6664357557667737</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.0736</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0901</v>
+        <v>0.117</v>
       </c>
       <c r="I14" t="n">
         <v>-0.1933695895030947</v>
@@ -28089,13 +28089,13 @@
         <v>0.7223431169834558</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0505</v>
+        <v>0.0883</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0679</v>
+        <v>0.1169</v>
       </c>
       <c r="I15" t="n">
         <v>-0.06071821013063734</v>
@@ -28167,13 +28167,13 @@
         <v>0.7776006403306007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08</v>
+        <v>0.115</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0741</v>
+        <v>0.0885</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0914</v>
+        <v>0.1577</v>
       </c>
       <c r="I16" t="n">
         <v>-0.0528302165502476</v>
@@ -28245,13 +28245,13 @@
         <v>0.833349401075053</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0644</v>
+        <v>0.0893</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0806</v>
+        <v>0.1666</v>
       </c>
       <c r="I17" t="n">
         <v>-0.03886145601683876</v>
@@ -28323,13 +28323,13 @@
         <v>0.8894721996649404</v>
       </c>
       <c r="F18" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0614</v>
+        <v>0.0916</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.1099</v>
       </c>
       <c r="I18" t="n">
         <v>0.02677878975206111</v>
@@ -28401,13 +28401,13 @@
         <v>0.9455643139590852</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0638</v>
+        <v>0.0767</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.1532</v>
       </c>
       <c r="I19" t="n">
         <v>0.02192579970515982</v>
@@ -28479,13 +28479,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0697</v>
+        <v>0.0747</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0822</v>
+        <v>0.0994</v>
       </c>
       <c r="I20" t="n">
         <v>-0.08680251575510292</v>
